--- a/src/data/AFCARS.xlsx
+++ b/src/data/AFCARS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="65">
   <si>
     <t>State</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Family Preservation Cases</t>
+  </si>
+  <si>
+    <t>Number of Licensed Homes</t>
   </si>
   <si>
     <t>AK</t>
@@ -166,6 +169,9 @@
     <t>PR</t>
   </si>
   <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
@@ -267,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -298,6 +304,9 @@
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -305,6 +314,12 @@
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
@@ -556,11 +571,14 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="O1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2">
         <v>2023.0</v>
@@ -586,21 +604,23 @@
       <c r="I2" s="9">
         <v>12.0</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="10">
+        <v>1030.0</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="10"/>
+      <c r="N2" s="11"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="10"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>2023.0</v>
@@ -624,23 +644,25 @@
         <v>0.368</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J3" s="10">
+        <v>2474.0</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="11"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-      <c r="T3" s="10"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2">
         <v>2023.0</v>
@@ -663,24 +685,26 @@
       <c r="H4" s="8">
         <v>0.373</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="12">
         <v>1370.0</v>
       </c>
-      <c r="J4" s="6"/>
+      <c r="J4" s="10">
+        <v>1548.0</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
-      <c r="N4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="10"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
         <v>2023.0</v>
@@ -706,21 +730,23 @@
       <c r="I5" s="9">
         <v>777.0</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="10">
+        <v>2638.0</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
-      <c r="N5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-      <c r="T5" s="10"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
         <v>2023.0</v>
@@ -743,24 +769,26 @@
       <c r="H6" s="8">
         <v>0.481</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="12">
         <v>24337.0</v>
       </c>
-      <c r="J6" s="6"/>
+      <c r="J6" s="10">
+        <v>34924.0</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
-      <c r="N6" s="10"/>
+      <c r="N6" s="11"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-      <c r="T6" s="10"/>
+      <c r="T6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>2023.0</v>
@@ -786,21 +814,23 @@
       <c r="I7" s="9">
         <v>705.0</v>
       </c>
-      <c r="J7" s="6"/>
+      <c r="J7" s="10">
+        <v>2078.0</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="11"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-      <c r="T7" s="10"/>
+      <c r="T7" s="11"/>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2">
         <v>2023.0</v>
@@ -826,21 +856,23 @@
       <c r="I8" s="9">
         <v>163.0</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="10">
+        <v>2363.0</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
-      <c r="N8" s="10"/>
+      <c r="N8" s="11"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="10"/>
+      <c r="T8" s="11"/>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>2023.0</v>
@@ -866,21 +898,23 @@
       <c r="I9" s="9">
         <v>17.0</v>
       </c>
-      <c r="J9" s="6"/>
+      <c r="J9" s="7">
+        <v>386.0</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="11"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-      <c r="T9" s="10"/>
+      <c r="T9" s="11"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2">
         <v>2023.0</v>
@@ -906,21 +940,23 @@
       <c r="I10" s="9">
         <v>57.0</v>
       </c>
-      <c r="J10" s="6"/>
+      <c r="J10" s="10">
+        <v>367.0</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
-      <c r="N10" s="10"/>
+      <c r="N10" s="11"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="10"/>
+      <c r="T10" s="11"/>
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2">
         <v>2023.0</v>
@@ -944,23 +980,25 @@
         <v>0.403</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J11" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="10">
+        <v>8712.0</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="11"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-      <c r="T11" s="10"/>
+      <c r="T11" s="11"/>
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2">
         <v>2023.0</v>
@@ -983,24 +1021,26 @@
       <c r="H12" s="8">
         <v>0.403</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="12">
         <v>3945.0</v>
       </c>
-      <c r="J12" s="6"/>
+      <c r="J12" s="10">
+        <v>4559.0</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
-      <c r="N12" s="10"/>
+      <c r="N12" s="11"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-      <c r="T12" s="10"/>
+      <c r="T12" s="11"/>
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2">
         <v>2023.0</v>
@@ -1008,8 +1048,8 @@
       <c r="C13" s="6">
         <v>1032.0</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
       <c r="F13" s="6">
         <v>650.0</v>
       </c>
@@ -1022,21 +1062,23 @@
       <c r="I13" s="9">
         <v>93.0</v>
       </c>
-      <c r="J13" s="6"/>
+      <c r="J13" s="10">
+        <v>781.0</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
-      <c r="N13" s="10"/>
+      <c r="N13" s="11"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-      <c r="T13" s="10"/>
+      <c r="T13" s="11"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2">
         <v>2023.0</v>
@@ -1062,21 +1104,23 @@
       <c r="I14" s="9">
         <v>246.0</v>
       </c>
-      <c r="J14" s="6"/>
+      <c r="J14" s="10">
+        <v>2244.0</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
-      <c r="N14" s="10"/>
+      <c r="N14" s="11"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="10"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2">
         <v>2023.0</v>
@@ -1100,23 +1144,25 @@
         <v>0.626</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J15" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J15" s="10">
+        <v>1187.0</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="11"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="10"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2">
         <v>2023.0</v>
@@ -1139,24 +1185,26 @@
       <c r="H16" s="8">
         <v>0.517</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="12">
         <v>5547.0</v>
       </c>
-      <c r="J16" s="6"/>
+      <c r="J16" s="10">
+        <v>8188.0</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
-      <c r="N16" s="10"/>
+      <c r="N16" s="11"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-      <c r="T16" s="10"/>
+      <c r="T16" s="11"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>2023.0</v>
@@ -1180,23 +1228,25 @@
         <v>0.502</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J17" s="10">
+        <v>4531.0</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
-      <c r="N17" s="10"/>
+      <c r="N17" s="11"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-      <c r="T17" s="10"/>
+      <c r="T17" s="11"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>2023.0</v>
@@ -1222,21 +1272,23 @@
       <c r="I18" s="9">
         <v>72.0</v>
       </c>
-      <c r="J18" s="6"/>
+      <c r="J18" s="10">
+        <v>2343.0</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="10"/>
+      <c r="N18" s="11"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-      <c r="T18" s="10"/>
+      <c r="T18" s="11"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>2023.0</v>
@@ -1259,24 +1311,26 @@
       <c r="H19" s="8">
         <v>0.387</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="12">
         <v>4505.0</v>
       </c>
-      <c r="J19" s="6"/>
+      <c r="J19" s="10">
+        <v>5185.0</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="11"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-      <c r="T19" s="10"/>
+      <c r="T19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2">
         <v>2023.0</v>
@@ -1299,24 +1353,26 @@
       <c r="H20" s="8">
         <v>0.479</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="12">
         <v>2122.0</v>
       </c>
-      <c r="J20" s="6"/>
+      <c r="J20" s="10">
+        <v>1659.0</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="10"/>
+      <c r="N20" s="11"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-      <c r="T20" s="10"/>
+      <c r="T20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>2023.0</v>
@@ -1340,23 +1396,25 @@
         <v>0.567</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="J21" s="10">
+        <v>5159.0</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="10"/>
+      <c r="N21" s="11"/>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-      <c r="T21" s="10"/>
+      <c r="T21" s="11"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2">
         <v>2023.0</v>
@@ -1382,21 +1440,23 @@
       <c r="I22" s="9">
         <v>348.0</v>
       </c>
-      <c r="J22" s="6"/>
+      <c r="J22" s="10">
+        <v>1462.0</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="10"/>
+      <c r="N22" s="11"/>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="10"/>
+      <c r="T22" s="11"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2">
         <v>2023.0</v>
@@ -1419,24 +1479,26 @@
       <c r="H23" s="8">
         <v>0.432</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="12">
         <v>3098.0</v>
       </c>
-      <c r="J23" s="6"/>
+      <c r="J23" s="10">
+        <v>1767.0</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
-      <c r="N23" s="10"/>
+      <c r="N23" s="11"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-      <c r="T23" s="10"/>
+      <c r="T23" s="11"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="2">
         <v>2023.0</v>
@@ -1459,24 +1521,26 @@
       <c r="H24" s="8">
         <v>0.354</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="12">
         <v>1373.0</v>
       </c>
-      <c r="J24" s="6"/>
+      <c r="J24" s="10">
+        <v>4169.0</v>
+      </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
-      <c r="N24" s="10"/>
+      <c r="N24" s="11"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="10"/>
+      <c r="T24" s="11"/>
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2">
         <v>2023.0</v>
@@ -1502,21 +1566,23 @@
       <c r="I25" s="9">
         <v>39.0</v>
       </c>
-      <c r="J25" s="6"/>
+      <c r="J25" s="10">
+        <v>3766.0</v>
+      </c>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-      <c r="N25" s="10"/>
+      <c r="N25" s="11"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
       <c r="R25" s="6"/>
       <c r="S25" s="6"/>
-      <c r="T25" s="10"/>
+      <c r="T25" s="11"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2">
         <v>2023.0</v>
@@ -1540,23 +1606,25 @@
         <v>0.467</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J26" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="J26" s="10">
+        <v>4567.0</v>
+      </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
-      <c r="N26" s="10"/>
+      <c r="N26" s="11"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
       <c r="R26" s="6"/>
       <c r="S26" s="6"/>
-      <c r="T26" s="10"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2">
         <v>2023.0</v>
@@ -1582,21 +1650,23 @@
       <c r="I27" s="9">
         <v>171.0</v>
       </c>
-      <c r="J27" s="6"/>
+      <c r="J27" s="10">
+        <v>1691.0</v>
+      </c>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
-      <c r="N27" s="10"/>
+      <c r="N27" s="11"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
       <c r="Q27" s="6"/>
       <c r="R27" s="6"/>
       <c r="S27" s="6"/>
-      <c r="T27" s="10"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" s="2">
         <v>2023.0</v>
@@ -1622,21 +1692,23 @@
       <c r="I28" s="9">
         <v>198.0</v>
       </c>
-      <c r="J28" s="6"/>
+      <c r="J28" s="10">
+        <v>1200.0</v>
+      </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
-      <c r="N28" s="10"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
       <c r="S28" s="6"/>
-      <c r="T28" s="10"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2">
         <v>2023.0</v>
@@ -1662,21 +1734,23 @@
       <c r="I29" s="9">
         <v>275.0</v>
       </c>
-      <c r="J29" s="6"/>
+      <c r="J29" s="10">
+        <v>5616.0</v>
+      </c>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
-      <c r="N29" s="10"/>
+      <c r="N29" s="11"/>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
       <c r="S29" s="6"/>
-      <c r="T29" s="10"/>
+      <c r="T29" s="11"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="2">
         <v>2023.0</v>
@@ -1699,24 +1773,26 @@
       <c r="H30" s="8">
         <v>0.502</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="12">
         <v>1034.0</v>
       </c>
-      <c r="J30" s="6"/>
+      <c r="J30" s="7">
+        <v>974.0</v>
+      </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
-      <c r="N30" s="10"/>
+      <c r="N30" s="11"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
       <c r="Q30" s="6"/>
       <c r="R30" s="6"/>
       <c r="S30" s="6"/>
-      <c r="T30" s="10"/>
+      <c r="T30" s="11"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2">
         <v>2023.0</v>
@@ -1742,21 +1818,23 @@
       <c r="I31" s="9">
         <v>114.0</v>
       </c>
-      <c r="J31" s="6"/>
+      <c r="J31" s="10">
+        <v>1502.0</v>
+      </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
-      <c r="N31" s="10"/>
+      <c r="N31" s="11"/>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
       <c r="Q31" s="6"/>
       <c r="R31" s="6"/>
       <c r="S31" s="6"/>
-      <c r="T31" s="10"/>
+      <c r="T31" s="11"/>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2">
         <v>2023.0</v>
@@ -1782,21 +1860,23 @@
       <c r="I32" s="9">
         <v>737.0</v>
       </c>
-      <c r="J32" s="6"/>
+      <c r="J32" s="10">
+        <v>599.0</v>
+      </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
-      <c r="N32" s="10"/>
+      <c r="N32" s="11"/>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
       <c r="Q32" s="6"/>
       <c r="R32" s="6"/>
       <c r="S32" s="6"/>
-      <c r="T32" s="10"/>
+      <c r="T32" s="11"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B33" s="2">
         <v>2023.0</v>
@@ -1822,21 +1902,23 @@
       <c r="I33" s="9">
         <v>114.0</v>
       </c>
-      <c r="J33" s="6"/>
+      <c r="J33" s="10">
+        <v>2449.0</v>
+      </c>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
-      <c r="N33" s="10"/>
+      <c r="N33" s="11"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
       <c r="R33" s="6"/>
       <c r="S33" s="6"/>
-      <c r="T33" s="10"/>
+      <c r="T33" s="11"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B34" s="2">
         <v>2023.0</v>
@@ -1860,23 +1942,25 @@
         <v>0.564</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J34" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J34" s="10">
+        <v>1007.0</v>
+      </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
-      <c r="N34" s="10"/>
+      <c r="N34" s="11"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
       <c r="Q34" s="6"/>
       <c r="R34" s="6"/>
       <c r="S34" s="6"/>
-      <c r="T34" s="10"/>
+      <c r="T34" s="11"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2">
         <v>2023.0</v>
@@ -1902,21 +1986,23 @@
       <c r="I35" s="9">
         <v>240.0</v>
       </c>
-      <c r="J35" s="6"/>
+      <c r="J35" s="10">
+        <v>1099.0</v>
+      </c>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
-      <c r="N35" s="10"/>
+      <c r="N35" s="11"/>
       <c r="O35" s="6"/>
       <c r="P35" s="6"/>
       <c r="Q35" s="6"/>
       <c r="R35" s="6"/>
       <c r="S35" s="6"/>
-      <c r="T35" s="10"/>
+      <c r="T35" s="11"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B36" s="2">
         <v>2023.0</v>
@@ -1942,21 +2028,23 @@
       <c r="I36" s="9">
         <v>109.0</v>
       </c>
-      <c r="J36" s="6"/>
+      <c r="J36" s="10">
+        <v>10490.0</v>
+      </c>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
-      <c r="N36" s="10"/>
+      <c r="N36" s="11"/>
       <c r="O36" s="6"/>
       <c r="P36" s="6"/>
       <c r="Q36" s="6"/>
       <c r="R36" s="6"/>
       <c r="S36" s="6"/>
-      <c r="T36" s="10"/>
+      <c r="T36" s="11"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B37" s="2">
         <v>2023.0</v>
@@ -1982,21 +2070,23 @@
       <c r="I37" s="9">
         <v>77.0</v>
       </c>
-      <c r="J37" s="6"/>
+      <c r="J37" s="10">
+        <v>7349.0</v>
+      </c>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
-      <c r="N37" s="10"/>
+      <c r="N37" s="11"/>
       <c r="O37" s="6"/>
       <c r="P37" s="6"/>
       <c r="Q37" s="6"/>
       <c r="R37" s="6"/>
       <c r="S37" s="6"/>
-      <c r="T37" s="10"/>
+      <c r="T37" s="11"/>
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B38" s="2">
         <v>2023.0</v>
@@ -2022,21 +2112,23 @@
       <c r="I38" s="9">
         <v>516.0</v>
       </c>
-      <c r="J38" s="6"/>
+      <c r="J38" s="10">
+        <v>4281.0</v>
+      </c>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
-      <c r="N38" s="10"/>
+      <c r="N38" s="11"/>
       <c r="O38" s="6"/>
       <c r="P38" s="6"/>
       <c r="Q38" s="6"/>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
-      <c r="T38" s="10"/>
+      <c r="T38" s="11"/>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B39" s="2">
         <v>2023.0</v>
@@ -2060,23 +2152,25 @@
         <v>0.514</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J39" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2959.0</v>
+      </c>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
-      <c r="N39" s="10"/>
+      <c r="N39" s="11"/>
       <c r="O39" s="6"/>
       <c r="P39" s="6"/>
       <c r="Q39" s="6"/>
       <c r="R39" s="6"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="10"/>
+      <c r="T39" s="11"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B40" s="2">
         <v>2023.0</v>
@@ -2102,21 +2196,23 @@
       <c r="I40" s="9">
         <v>47.0</v>
       </c>
-      <c r="J40" s="6"/>
+      <c r="J40" s="10">
+        <v>12616.0</v>
+      </c>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
-      <c r="N40" s="10"/>
+      <c r="N40" s="11"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
       <c r="Q40" s="6"/>
       <c r="R40" s="6"/>
       <c r="S40" s="6"/>
-      <c r="T40" s="10"/>
+      <c r="T40" s="11"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2">
         <v>2023.0</v>
@@ -2124,7 +2220,7 @@
       <c r="C41" s="6">
         <v>2456.0</v>
       </c>
-      <c r="D41" s="12"/>
+      <c r="D41" s="13"/>
       <c r="E41" s="6">
         <v>625.0</v>
       </c>
@@ -2137,24 +2233,26 @@
       <c r="H41" s="8">
         <v>0.542</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="12">
         <v>1827.0</v>
       </c>
-      <c r="J41" s="6"/>
+      <c r="J41" s="14" t="s">
+        <v>52</v>
+      </c>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
-      <c r="N41" s="10"/>
+      <c r="N41" s="11"/>
       <c r="O41" s="6"/>
       <c r="P41" s="6"/>
       <c r="Q41" s="6"/>
       <c r="R41" s="6"/>
       <c r="S41" s="6"/>
-      <c r="T41" s="10"/>
+      <c r="T41" s="11"/>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2">
         <v>2023.0</v>
@@ -2178,23 +2276,25 @@
         <v>0.462</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J42" s="7">
+        <v>828.0</v>
+      </c>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
-      <c r="N42" s="10"/>
+      <c r="N42" s="11"/>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
       <c r="S42" s="6"/>
-      <c r="T42" s="10"/>
+      <c r="T42" s="11"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" s="2">
         <v>2023.0</v>
@@ -2220,21 +2320,23 @@
       <c r="I43" s="9">
         <v>544.0</v>
       </c>
-      <c r="J43" s="6"/>
+      <c r="J43" s="10">
+        <v>1040.0</v>
+      </c>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
-      <c r="N43" s="10"/>
+      <c r="N43" s="11"/>
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
       <c r="R43" s="6"/>
       <c r="S43" s="6"/>
-      <c r="T43" s="10"/>
+      <c r="T43" s="11"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B44" s="2">
         <v>2023.0</v>
@@ -2258,23 +2360,25 @@
         <v>0.419</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J44" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J44" s="7">
+        <v>835.0</v>
+      </c>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
-      <c r="N44" s="10"/>
+      <c r="N44" s="11"/>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
       <c r="R44" s="6"/>
       <c r="S44" s="6"/>
-      <c r="T44" s="10"/>
+      <c r="T44" s="11"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B45" s="2">
         <v>2023.0</v>
@@ -2298,23 +2402,25 @@
         <v>0.449</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J45" s="10">
+        <v>4509.0</v>
+      </c>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
-      <c r="N45" s="10"/>
+      <c r="N45" s="11"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
       <c r="R45" s="6"/>
       <c r="S45" s="6"/>
-      <c r="T45" s="10"/>
+      <c r="T45" s="11"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B46" s="2">
         <v>2023.0</v>
@@ -2337,24 +2443,26 @@
       <c r="H46" s="8">
         <v>0.345</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="12">
         <v>14743.0</v>
       </c>
-      <c r="J46" s="6"/>
+      <c r="J46" s="15" t="s">
+        <v>52</v>
+      </c>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
-      <c r="N46" s="10"/>
+      <c r="N46" s="11"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
-      <c r="T46" s="10"/>
+      <c r="T46" s="11"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B47" s="2">
         <v>2023.0</v>
@@ -2380,21 +2488,23 @@
       <c r="I47" s="9">
         <v>959.0</v>
       </c>
-      <c r="J47" s="6"/>
+      <c r="J47" s="10">
+        <v>1120.0</v>
+      </c>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
-      <c r="N47" s="10"/>
+      <c r="N47" s="11"/>
       <c r="O47" s="6"/>
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
       <c r="R47" s="6"/>
       <c r="S47" s="6"/>
-      <c r="T47" s="10"/>
+      <c r="T47" s="11"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B48" s="2">
         <v>2023.0</v>
@@ -2418,23 +2528,25 @@
         <v>0.272</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J48" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J48" s="10">
+        <v>4735.0</v>
+      </c>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
-      <c r="N48" s="10"/>
+      <c r="N48" s="11"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
       <c r="S48" s="6"/>
-      <c r="T48" s="10"/>
+      <c r="T48" s="11"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="2">
         <v>2023.0</v>
@@ -2458,23 +2570,25 @@
         <v>0.478</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J49" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J49" s="7">
+        <v>810.0</v>
+      </c>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
-      <c r="N49" s="10"/>
+      <c r="N49" s="11"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
       <c r="R49" s="6"/>
       <c r="S49" s="6"/>
-      <c r="T49" s="10"/>
+      <c r="T49" s="11"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="2">
         <v>2023.0</v>
@@ -2500,21 +2614,23 @@
       <c r="I50" s="9">
         <v>382.0</v>
       </c>
-      <c r="J50" s="6"/>
+      <c r="J50" s="10">
+        <v>4341.0</v>
+      </c>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
-      <c r="N50" s="10"/>
+      <c r="N50" s="11"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
       <c r="S50" s="6"/>
-      <c r="T50" s="10"/>
+      <c r="T50" s="11"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B51" s="2">
         <v>2023.0</v>
@@ -2540,21 +2656,23 @@
       <c r="I51" s="9">
         <v>126.0</v>
       </c>
-      <c r="J51" s="6"/>
+      <c r="J51" s="10">
+        <v>2968.0</v>
+      </c>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
-      <c r="N51" s="10"/>
+      <c r="N51" s="11"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
       <c r="R51" s="6"/>
       <c r="S51" s="6"/>
-      <c r="T51" s="10"/>
+      <c r="T51" s="11"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B52" s="2">
         <v>2023.0</v>
@@ -2576,23 +2694,25 @@
         <v>0.443</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J52" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="J52" s="10">
+        <v>3148.0</v>
+      </c>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
-      <c r="N52" s="10"/>
+      <c r="N52" s="11"/>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
       <c r="R52" s="6"/>
       <c r="S52" s="6"/>
-      <c r="T52" s="10"/>
+      <c r="T52" s="11"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B53" s="2">
         <v>2023.0</v>
@@ -2616,21 +2736,23 @@
       <c r="I53" s="9">
         <v>469.0</v>
       </c>
-      <c r="J53" s="6"/>
+      <c r="J53" s="7">
+        <v>468.0</v>
+      </c>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
-      <c r="N53" s="10"/>
+      <c r="N53" s="11"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
       <c r="R53" s="6"/>
       <c r="S53" s="6"/>
-      <c r="T53" s="10"/>
+      <c r="T53" s="11"/>
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3">
         <v>2022.0</v>
@@ -2650,7 +2772,7 @@
       <c r="G54" s="6">
         <v>286.0</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="11">
         <v>0.4948</v>
       </c>
       <c r="I54" s="9">
@@ -2659,7 +2781,7 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55" s="3">
         <v>2022.0</v>
@@ -2679,16 +2801,16 @@
       <c r="G55" s="6">
         <v>765.0</v>
       </c>
-      <c r="H55" s="10">
+      <c r="H55" s="11">
         <v>0.3789</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" s="3">
         <v>2022.0</v>
@@ -2708,16 +2830,16 @@
       <c r="G56" s="6">
         <v>840.0</v>
       </c>
-      <c r="H56" s="10">
+      <c r="H56" s="11">
         <v>0.4386</v>
       </c>
-      <c r="I56" s="11">
+      <c r="I56" s="12">
         <v>1256.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B57" s="3">
         <v>2022.0</v>
@@ -2737,7 +2859,7 @@
       <c r="G57" s="6">
         <v>2614.0</v>
       </c>
-      <c r="H57" s="10">
+      <c r="H57" s="11">
         <v>0.4774</v>
       </c>
       <c r="I57" s="9">
@@ -2746,7 +2868,7 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B58" s="3">
         <v>2022.0</v>
@@ -2766,16 +2888,16 @@
       <c r="G58" s="6">
         <v>5668.0</v>
       </c>
-      <c r="H58" s="10">
+      <c r="H58" s="11">
         <v>0.4963</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="12">
         <v>26580.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" s="3">
         <v>2022.0</v>
@@ -2795,7 +2917,7 @@
       <c r="G59" s="6">
         <v>583.0</v>
       </c>
-      <c r="H59" s="10">
+      <c r="H59" s="11">
         <v>0.3329</v>
       </c>
       <c r="I59" s="9">
@@ -2804,7 +2926,7 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B60" s="3">
         <v>2022.0</v>
@@ -2824,7 +2946,7 @@
       <c r="G60" s="6">
         <v>485.0</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="11">
         <v>0.3088</v>
       </c>
       <c r="I60" s="9">
@@ -2833,7 +2955,7 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B61" s="3">
         <v>2022.0</v>
@@ -2853,7 +2975,7 @@
       <c r="G61" s="6">
         <v>96.0</v>
       </c>
-      <c r="H61" s="10">
+      <c r="H61" s="11">
         <v>0.3385</v>
       </c>
       <c r="I61" s="9">
@@ -2862,7 +2984,7 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B62" s="3">
         <v>2022.0</v>
@@ -2882,7 +3004,7 @@
       <c r="G62" s="6">
         <v>53.0</v>
       </c>
-      <c r="H62" s="10">
+      <c r="H62" s="11">
         <v>0.3984</v>
       </c>
       <c r="I62" s="9">
@@ -2891,7 +3013,7 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B63" s="3">
         <v>2022.0</v>
@@ -2911,16 +3033,16 @@
       <c r="G63" s="6">
         <v>3858.0</v>
       </c>
-      <c r="H63" s="10">
+      <c r="H63" s="11">
         <v>0.425</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B64" s="3">
         <v>2022.0</v>
@@ -2940,16 +3062,16 @@
       <c r="G64" s="6">
         <v>1201.0</v>
       </c>
-      <c r="H64" s="10">
+      <c r="H64" s="11">
         <v>0.3939</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="12">
         <v>3855.0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B65" s="3">
         <v>2022.0</v>
@@ -2969,7 +3091,7 @@
       <c r="G65" s="6">
         <v>158.0</v>
       </c>
-      <c r="H65" s="10">
+      <c r="H65" s="11">
         <v>0.531</v>
       </c>
       <c r="I65" s="9">
@@ -2978,7 +3100,7 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B66" s="3">
         <v>2022.0</v>
@@ -2998,7 +3120,7 @@
       <c r="G66" s="6">
         <v>945.0</v>
       </c>
-      <c r="H66" s="10">
+      <c r="H66" s="11">
         <v>0.4587</v>
       </c>
       <c r="I66" s="9">
@@ -3007,7 +3129,7 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B67" s="3">
         <v>2022.0</v>
@@ -3027,16 +3149,16 @@
       <c r="G67" s="6">
         <v>276.0</v>
       </c>
-      <c r="H67" s="10">
+      <c r="H67" s="11">
         <v>0.572</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B68" s="3">
         <v>2022.0</v>
@@ -3056,16 +3178,16 @@
       <c r="G68" s="6">
         <v>1706.0</v>
       </c>
-      <c r="H68" s="10">
+      <c r="H68" s="11">
         <v>0.5119</v>
       </c>
-      <c r="I68" s="11">
+      <c r="I68" s="12">
         <v>5903.0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B69" s="3">
         <v>2022.0</v>
@@ -3085,16 +3207,16 @@
       <c r="G69" s="6">
         <v>1884.0</v>
       </c>
-      <c r="H69" s="10">
+      <c r="H69" s="11">
         <v>0.5424</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B70" s="3">
         <v>2022.0</v>
@@ -3114,7 +3236,7 @@
       <c r="G70" s="6">
         <v>960.0</v>
       </c>
-      <c r="H70" s="10">
+      <c r="H70" s="11">
         <v>0.5158</v>
       </c>
       <c r="I70" s="9">
@@ -3123,7 +3245,7 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B71" s="3">
         <v>2022.0</v>
@@ -3143,16 +3265,16 @@
       <c r="G71" s="6">
         <v>1341.0</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="11">
         <v>0.3683</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="12">
         <v>4380.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B72" s="3">
         <v>2022.0</v>
@@ -3172,16 +3294,16 @@
       <c r="G72" s="6">
         <v>700.0</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="11">
         <v>0.3795</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="12">
         <v>1816.0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B73" s="3">
         <v>2022.0</v>
@@ -3201,16 +3323,16 @@
       <c r="G73" s="6">
         <v>799.0</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="11">
         <v>0.56</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B74" s="3">
         <v>2022.0</v>
@@ -3230,16 +3352,16 @@
       <c r="G74" s="6">
         <v>242.0</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="11">
         <v>0.353</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B75" s="3">
         <v>2022.0</v>
@@ -3259,16 +3381,16 @@
       <c r="G75" s="6">
         <v>361.0</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="11">
         <v>0.4484</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="12">
         <v>3097.0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B76" s="3">
         <v>2022.0</v>
@@ -3288,16 +3410,16 @@
       <c r="G76" s="6">
         <v>1667.0</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="11">
         <v>0.3755</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76" s="12">
         <v>1485.0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B77" s="3">
         <v>2022.0</v>
@@ -3317,7 +3439,7 @@
       <c r="G77" s="6">
         <v>1101.0</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="11">
         <v>0.5096</v>
       </c>
       <c r="I77" s="9">
@@ -3326,7 +3448,7 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B78" s="3">
         <v>2022.0</v>
@@ -3346,16 +3468,16 @@
       <c r="G78" s="6">
         <v>1404.0</v>
       </c>
-      <c r="H78" s="10">
+      <c r="H78" s="11">
         <v>0.4483</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B79" s="3">
         <v>2022.0</v>
@@ -3375,7 +3497,7 @@
       <c r="G79" s="6">
         <v>588.0</v>
       </c>
-      <c r="H79" s="10">
+      <c r="H79" s="11">
         <v>0.4412</v>
       </c>
       <c r="I79" s="9">
@@ -3384,7 +3506,7 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B80" s="3">
         <v>2022.0</v>
@@ -3404,7 +3526,7 @@
       <c r="G80" s="6">
         <v>359.0</v>
       </c>
-      <c r="H80" s="10">
+      <c r="H80" s="11">
         <v>0.5204</v>
       </c>
       <c r="I80" s="9">
@@ -3413,7 +3535,7 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B81" s="3">
         <v>2022.0</v>
@@ -3433,7 +3555,7 @@
       <c r="G81" s="6">
         <v>1097.0</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="11">
         <v>0.4028</v>
       </c>
       <c r="I81" s="9">
@@ -3442,7 +3564,7 @@
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B82" s="3">
         <v>2022.0</v>
@@ -3462,16 +3584,16 @@
       <c r="G82" s="6">
         <v>207.0</v>
       </c>
-      <c r="H82" s="10">
+      <c r="H82" s="11">
         <v>0.4881</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="12">
         <v>1100.0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B83" s="3">
         <v>2022.0</v>
@@ -3491,7 +3613,7 @@
       <c r="G83" s="6">
         <v>394.0</v>
       </c>
-      <c r="H83" s="10">
+      <c r="H83" s="11">
         <v>0.5907</v>
       </c>
       <c r="I83" s="9">
@@ -3500,7 +3622,7 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B84" s="3">
         <v>2022.0</v>
@@ -3520,7 +3642,7 @@
       <c r="G84" s="6">
         <v>213.0</v>
       </c>
-      <c r="H84" s="10">
+      <c r="H84" s="11">
         <v>0.5033</v>
       </c>
       <c r="I84" s="9">
@@ -3529,7 +3651,7 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B85" s="3">
         <v>2022.0</v>
@@ -3549,7 +3671,7 @@
       <c r="G85" s="6">
         <v>588.0</v>
       </c>
-      <c r="H85" s="10">
+      <c r="H85" s="11">
         <v>0.4051</v>
       </c>
       <c r="I85" s="9">
@@ -3558,7 +3680,7 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B86" s="3">
         <v>2022.0</v>
@@ -3578,16 +3700,16 @@
       <c r="G86" s="6">
         <v>228.0</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="11">
         <v>0.5316</v>
       </c>
       <c r="I86" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B87" s="3">
         <v>2022.0</v>
@@ -3607,7 +3729,7 @@
       <c r="G87" s="6">
         <v>737.0</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H87" s="11">
         <v>0.5526</v>
       </c>
       <c r="I87" s="9">
@@ -3616,7 +3738,7 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B88" s="3">
         <v>2022.0</v>
@@ -3636,7 +3758,7 @@
       <c r="G88" s="6">
         <v>1248.0</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="11">
         <v>0.3907</v>
       </c>
       <c r="I88" s="9">
@@ -3645,7 +3767,7 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B89" s="3">
         <v>2022.0</v>
@@ -3665,7 +3787,7 @@
       <c r="G89" s="6">
         <v>1508.0</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="11">
         <v>0.3954</v>
       </c>
       <c r="I89" s="9">
@@ -3674,7 +3796,7 @@
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B90" s="3">
         <v>2022.0</v>
@@ -3694,7 +3816,7 @@
       <c r="G90" s="6">
         <v>1547.0</v>
       </c>
-      <c r="H90" s="10">
+      <c r="H90" s="11">
         <v>0.4113</v>
       </c>
       <c r="I90" s="9">
@@ -3703,7 +3825,7 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B91" s="3">
         <v>2022.0</v>
@@ -3723,16 +3845,16 @@
       <c r="G91" s="6">
         <v>569.0</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="11">
         <v>0.4849</v>
       </c>
       <c r="I91" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B92" s="3">
         <v>2022.0</v>
@@ -3752,7 +3874,7 @@
       <c r="G92" s="6">
         <v>2172.0</v>
       </c>
-      <c r="H92" s="10">
+      <c r="H92" s="11">
         <v>0.4191</v>
       </c>
       <c r="I92" s="9">
@@ -3761,7 +3883,7 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B93" s="3">
         <v>2022.0</v>
@@ -3781,16 +3903,16 @@
       <c r="G93" s="6">
         <v>63.0</v>
       </c>
-      <c r="H93" s="10">
+      <c r="H93" s="11">
         <v>0.4901</v>
       </c>
-      <c r="I93" s="11">
+      <c r="I93" s="12">
         <v>1724.0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B94" s="3">
         <v>2022.0</v>
@@ -3810,16 +3932,16 @@
       <c r="G94" s="6">
         <v>238.0</v>
       </c>
-      <c r="H94" s="10">
+      <c r="H94" s="11">
         <v>0.4316</v>
       </c>
       <c r="I94" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B95" s="3">
         <v>2022.0</v>
@@ -3839,7 +3961,7 @@
       <c r="G95" s="6">
         <v>508.0</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="11">
         <v>0.4867</v>
       </c>
       <c r="I95" s="9">
@@ -3848,7 +3970,7 @@
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B96" s="3">
         <v>2022.0</v>
@@ -3868,16 +3990,16 @@
       <c r="G96" s="6">
         <v>247.0</v>
       </c>
-      <c r="H96" s="10">
+      <c r="H96" s="11">
         <v>0.4808</v>
       </c>
       <c r="I96" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B97" s="3">
         <v>2022.0</v>
@@ -3897,16 +4019,16 @@
       <c r="G97" s="6">
         <v>1150.0</v>
       </c>
-      <c r="H97" s="10">
+      <c r="H97" s="11">
         <v>0.4308</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B98" s="3">
         <v>2022.0</v>
@@ -3926,16 +4048,16 @@
       <c r="G98" s="6">
         <v>4436.0</v>
       </c>
-      <c r="H98" s="10">
+      <c r="H98" s="11">
         <v>0.4036</v>
       </c>
-      <c r="I98" s="11">
+      <c r="I98" s="12">
         <v>10598.0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B99" s="3">
         <v>2022.0</v>
@@ -3955,16 +4077,16 @@
       <c r="G99" s="6">
         <v>527.0</v>
       </c>
-      <c r="H99" s="10">
+      <c r="H99" s="11">
         <v>0.4044</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99" s="12">
         <v>1219.0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B100" s="3">
         <v>2022.0</v>
@@ -3984,16 +4106,16 @@
       <c r="G100" s="6">
         <v>774.0</v>
       </c>
-      <c r="H100" s="10">
+      <c r="H100" s="11">
         <v>0.267</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B101" s="3">
         <v>2022.0</v>
@@ -4013,16 +4135,16 @@
       <c r="G101" s="6">
         <v>167.0</v>
       </c>
-      <c r="H101" s="10">
+      <c r="H101" s="11">
         <v>0.4921</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B102" s="3">
         <v>2022.0</v>
@@ -4042,7 +4164,7 @@
       <c r="G102" s="6">
         <v>875.0</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="11">
         <v>0.6705</v>
       </c>
       <c r="I102" s="9">
@@ -4051,7 +4173,7 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B103" s="3">
         <v>2022.0</v>
@@ -4071,7 +4193,7 @@
       <c r="G103" s="6">
         <v>669.0</v>
       </c>
-      <c r="H103" s="10">
+      <c r="H103" s="11">
         <v>0.5053</v>
       </c>
       <c r="I103" s="9">
@@ -4080,7 +4202,7 @@
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B104" s="3">
         <v>2022.0</v>
@@ -4100,16 +4222,16 @@
       <c r="G104" s="6">
         <v>1782.0</v>
       </c>
-      <c r="H104" s="10">
+      <c r="H104" s="11">
         <v>0.4706</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B105" s="3">
         <v>2022.0</v>
@@ -4129,7 +4251,7 @@
       <c r="G105" s="6">
         <v>108.0</v>
       </c>
-      <c r="H105" s="10">
+      <c r="H105" s="11">
         <v>0.6476</v>
       </c>
       <c r="I105" s="9">
@@ -4138,7 +4260,7 @@
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B106" s="3">
         <v>2021.0</v>
@@ -4158,16 +4280,19 @@
       <c r="G106" s="6">
         <v>316.0</v>
       </c>
-      <c r="H106" s="10">
+      <c r="H106" s="11">
         <v>0.4947</v>
       </c>
       <c r="I106" s="9">
         <v>10.0</v>
       </c>
+      <c r="J106" s="10">
+        <v>1205.0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B107" s="3">
         <v>2021.0</v>
@@ -4187,16 +4312,19 @@
       <c r="G107" s="6">
         <v>784.0</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="11">
         <v>0.3607</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J107" s="10">
+        <v>2039.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B108" s="3">
         <v>2021.0</v>
@@ -4216,16 +4344,19 @@
       <c r="G108" s="6">
         <v>752.0</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="11">
         <v>0.4278</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108" s="12">
         <v>1680.0</v>
+      </c>
+      <c r="J108" s="10">
+        <v>1509.0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B109" s="3">
         <v>2021.0</v>
@@ -4245,16 +4376,19 @@
       <c r="G109" s="6">
         <v>2512.0</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="11">
         <v>0.5114</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109" s="12">
         <v>1029.0</v>
+      </c>
+      <c r="J109" s="10">
+        <v>3509.0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B110" s="3">
         <v>2021.0</v>
@@ -4274,16 +4408,19 @@
       <c r="G110" s="6">
         <v>5829.0</v>
       </c>
-      <c r="H110" s="10">
+      <c r="H110" s="11">
         <v>0.4955</v>
       </c>
-      <c r="I110" s="11">
+      <c r="I110" s="12">
         <v>15946.0</v>
+      </c>
+      <c r="J110" s="10">
+        <v>32597.0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B111" s="3">
         <v>2021.0</v>
@@ -4303,16 +4440,19 @@
       <c r="G111" s="6">
         <v>605.0</v>
       </c>
-      <c r="H111" s="10">
+      <c r="H111" s="11">
         <v>0.3236</v>
       </c>
       <c r="I111" s="9">
         <v>885.0</v>
       </c>
+      <c r="J111" s="10">
+        <v>1586.0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B112" s="3">
         <v>2021.0</v>
@@ -4332,16 +4472,19 @@
       <c r="G112" s="6">
         <v>437.0</v>
       </c>
-      <c r="H112" s="10">
+      <c r="H112" s="11">
         <v>0.3606</v>
       </c>
       <c r="I112" s="9">
         <v>112.0</v>
       </c>
+      <c r="J112" s="10">
+        <v>2842.0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B113" s="3">
         <v>2021.0</v>
@@ -4361,16 +4504,19 @@
       <c r="G113" s="6">
         <v>108.0</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="11">
         <v>0.3497</v>
       </c>
       <c r="I113" s="9">
         <v>12.0</v>
       </c>
+      <c r="J113" s="7">
+        <v>505.0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B114" s="3">
         <v>2021.0</v>
@@ -4390,16 +4536,19 @@
       <c r="G114" s="6">
         <v>86.0</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="11">
         <v>0.2464</v>
       </c>
       <c r="I114" s="9">
         <v>48.0</v>
       </c>
+      <c r="J114" s="10">
+        <v>400.0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B115" s="3">
         <v>2021.0</v>
@@ -4419,16 +4568,19 @@
       <c r="G115" s="6">
         <v>3870.0</v>
       </c>
-      <c r="H115" s="10">
+      <c r="H115" s="11">
         <v>0.4417</v>
       </c>
       <c r="I115" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J115" s="10">
+        <v>8867.0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B116" s="3">
         <v>2021.0</v>
@@ -4448,16 +4600,19 @@
       <c r="G116" s="6">
         <v>1261.0</v>
       </c>
-      <c r="H116" s="10">
+      <c r="H116" s="11">
         <v>0.3927</v>
       </c>
-      <c r="I116" s="11">
+      <c r="I116" s="12">
         <v>3495.0</v>
+      </c>
+      <c r="J116" s="10">
+        <v>4650.0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B117" s="3">
         <v>2021.0</v>
@@ -4477,16 +4632,19 @@
       <c r="G117" s="6">
         <v>257.0</v>
       </c>
-      <c r="H117" s="10">
+      <c r="H117" s="11">
         <v>0.4919</v>
       </c>
       <c r="I117" s="9">
         <v>22.0</v>
       </c>
+      <c r="J117" s="10">
+        <v>1186.0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B118" s="3">
         <v>2021.0</v>
@@ -4506,16 +4664,19 @@
       <c r="G118" s="6">
         <v>1007.0</v>
       </c>
-      <c r="H118" s="10">
+      <c r="H118" s="11">
         <v>0.523</v>
       </c>
       <c r="I118" s="9">
         <v>341.0</v>
       </c>
+      <c r="J118" s="10">
+        <v>2223.0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B119" s="3">
         <v>2021.0</v>
@@ -4535,16 +4696,19 @@
       <c r="G119" s="6">
         <v>322.0</v>
       </c>
-      <c r="H119" s="10">
+      <c r="H119" s="11">
         <v>0.5473</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J119" s="10">
+        <v>1131.0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B120" s="3">
         <v>2021.0</v>
@@ -4564,16 +4728,19 @@
       <c r="G120" s="6">
         <v>1597.0</v>
       </c>
-      <c r="H120" s="10">
+      <c r="H120" s="11">
         <v>0.5191</v>
       </c>
-      <c r="I120" s="11">
+      <c r="I120" s="12">
         <v>6736.0</v>
+      </c>
+      <c r="J120" s="10">
+        <v>9058.0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B121" s="3">
         <v>2021.0</v>
@@ -4593,16 +4760,19 @@
       <c r="G121" s="6">
         <v>1855.0</v>
       </c>
-      <c r="H121" s="10">
+      <c r="H121" s="11">
         <v>0.5844</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J121" s="10">
+        <v>5428.0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B122" s="3">
         <v>2021.0</v>
@@ -4622,16 +4792,19 @@
       <c r="G122" s="6">
         <v>839.0</v>
       </c>
-      <c r="H122" s="10">
+      <c r="H122" s="11">
         <v>0.5277</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J122" s="10">
+        <v>2805.0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B123" s="3">
         <v>2021.0</v>
@@ -4651,16 +4824,19 @@
       <c r="G123" s="6">
         <v>1198.0</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="11">
         <v>0.3833</v>
       </c>
-      <c r="I123" s="11">
+      <c r="I123" s="12">
         <v>5947.0</v>
+      </c>
+      <c r="J123" s="10">
+        <v>5679.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B124" s="3">
         <v>2021.0</v>
@@ -4680,16 +4856,19 @@
       <c r="G124" s="6">
         <v>612.0</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="11">
         <v>0.3988</v>
       </c>
-      <c r="I124" s="11">
+      <c r="I124" s="12">
         <v>1734.0</v>
+      </c>
+      <c r="J124" s="10">
+        <v>1834.0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B125" s="3">
         <v>2021.0</v>
@@ -4709,16 +4888,19 @@
       <c r="G125" s="6">
         <v>755.0</v>
       </c>
-      <c r="H125" s="10">
+      <c r="H125" s="11">
         <v>0.5975</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J125" s="10">
+        <v>5919.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B126" s="3">
         <v>2021.0</v>
@@ -4738,16 +4920,19 @@
       <c r="G126" s="6">
         <v>215.0</v>
       </c>
-      <c r="H126" s="10">
+      <c r="H126" s="11">
         <v>0.398</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J126" s="10">
+        <v>3267.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B127" s="3">
         <v>2021.0</v>
@@ -4767,16 +4952,19 @@
       <c r="G127" s="6">
         <v>345.0</v>
       </c>
-      <c r="H127" s="10">
+      <c r="H127" s="11">
         <v>0.4724</v>
       </c>
-      <c r="I127" s="11">
+      <c r="I127" s="12">
         <v>3302.0</v>
+      </c>
+      <c r="J127" s="10">
+        <v>1717.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B128" s="3">
         <v>2021.0</v>
@@ -4796,16 +4984,19 @@
       <c r="G128" s="6">
         <v>1687.0</v>
       </c>
-      <c r="H128" s="10">
+      <c r="H128" s="11">
         <v>0.4145</v>
       </c>
       <c r="I128" s="9">
         <v>463.0</v>
       </c>
+      <c r="J128" s="10">
+        <v>5434.0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B129" s="3">
         <v>2021.0</v>
@@ -4825,16 +5016,19 @@
       <c r="G129" s="6">
         <v>1005.0</v>
       </c>
-      <c r="H129" s="10">
+      <c r="H129" s="11">
         <v>0.5218</v>
       </c>
       <c r="I129" s="9">
         <v>113.0</v>
       </c>
+      <c r="J129" s="10">
+        <v>4827.0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B130" s="3">
         <v>2021.0</v>
@@ -4854,16 +5048,19 @@
       <c r="G130" s="6">
         <v>1346.0</v>
       </c>
-      <c r="H130" s="10">
+      <c r="H130" s="11">
         <v>0.4527</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="J130" s="10">
+        <v>4971.0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B131" s="3">
         <v>2021.0</v>
@@ -4883,16 +5080,19 @@
       <c r="G131" s="6">
         <v>546.0</v>
       </c>
-      <c r="H131" s="10">
+      <c r="H131" s="11">
         <v>0.4641</v>
       </c>
       <c r="I131" s="9">
         <v>172.0</v>
       </c>
+      <c r="J131" s="10">
+        <v>1870.0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B132" s="3">
         <v>2021.0</v>
@@ -4912,16 +5112,19 @@
       <c r="G132" s="6">
         <v>287.0</v>
       </c>
-      <c r="H132" s="10">
+      <c r="H132" s="11">
         <v>0.5795</v>
       </c>
       <c r="I132" s="9">
         <v>141.0</v>
       </c>
+      <c r="J132" s="10">
+        <v>1674.0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B133" s="3">
         <v>2021.0</v>
@@ -4941,16 +5144,19 @@
       <c r="G133" s="6">
         <v>1087.0</v>
       </c>
-      <c r="H133" s="10">
+      <c r="H133" s="11">
         <v>0.3817</v>
       </c>
       <c r="I133" s="9">
         <v>507.0</v>
       </c>
+      <c r="J133" s="10">
+        <v>7052.0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B134" s="3">
         <v>2021.0</v>
@@ -4970,16 +5176,19 @@
       <c r="G134" s="6">
         <v>202.0</v>
       </c>
-      <c r="H134" s="10">
+      <c r="H134" s="11">
         <v>0.5284</v>
       </c>
-      <c r="I134" s="11">
+      <c r="I134" s="12">
         <v>1034.0</v>
+      </c>
+      <c r="J134" s="7">
+        <v>953.0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B135" s="3">
         <v>2021.0</v>
@@ -4999,16 +5208,19 @@
       <c r="G135" s="6">
         <v>369.0</v>
       </c>
-      <c r="H135" s="10">
+      <c r="H135" s="11">
         <v>0.573</v>
       </c>
       <c r="I135" s="9">
         <v>36.0</v>
       </c>
+      <c r="J135" s="10">
+        <v>1502.0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B136" s="3">
         <v>2021.0</v>
@@ -5028,16 +5240,19 @@
       <c r="G136" s="6">
         <v>232.0</v>
       </c>
-      <c r="H136" s="10">
+      <c r="H136" s="11">
         <v>0.4422</v>
       </c>
       <c r="I136" s="9">
         <v>923.0</v>
       </c>
+      <c r="J136" s="10">
+        <v>708.0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B137" s="3">
         <v>2021.0</v>
@@ -5057,16 +5272,19 @@
       <c r="G137" s="6">
         <v>641.0</v>
       </c>
-      <c r="H137" s="10">
+      <c r="H137" s="11">
         <v>0.4657</v>
       </c>
       <c r="I137" s="9">
         <v>219.0</v>
       </c>
+      <c r="J137" s="10">
+        <v>3467.0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B138" s="3">
         <v>2021.0</v>
@@ -5086,16 +5304,19 @@
       <c r="G138" s="6">
         <v>396.0</v>
       </c>
-      <c r="H138" s="10">
+      <c r="H138" s="11">
         <v>0.4923</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J138" s="10">
+        <v>1383.0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B139" s="3">
         <v>2021.0</v>
@@ -5115,16 +5336,19 @@
       <c r="G139" s="6">
         <v>718.0</v>
       </c>
-      <c r="H139" s="10">
+      <c r="H139" s="11">
         <v>0.5517</v>
       </c>
       <c r="I139" s="9">
         <v>185.0</v>
       </c>
+      <c r="J139" s="10">
+        <v>1441.0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B140" s="3">
         <v>2021.0</v>
@@ -5144,16 +5368,19 @@
       <c r="G140" s="6">
         <v>1098.0</v>
       </c>
-      <c r="H140" s="10">
+      <c r="H140" s="11">
         <v>0.3991</v>
       </c>
       <c r="I140" s="9">
         <v>113.0</v>
       </c>
+      <c r="J140" s="10">
+        <v>11197.0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B141" s="3">
         <v>2021.0</v>
@@ -5173,16 +5400,19 @@
       <c r="G141" s="6">
         <v>1593.0</v>
       </c>
-      <c r="H141" s="10">
+      <c r="H141" s="11">
         <v>0.4059</v>
       </c>
       <c r="I141" s="9">
         <v>145.0</v>
       </c>
+      <c r="J141" s="10">
+        <v>8167.0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B142" s="3">
         <v>2021.0</v>
@@ -5202,16 +5432,19 @@
       <c r="G142" s="6">
         <v>1381.0</v>
       </c>
-      <c r="H142" s="10">
+      <c r="H142" s="11">
         <v>0.4612</v>
       </c>
       <c r="I142" s="9">
         <v>479.0</v>
       </c>
+      <c r="J142" s="10">
+        <v>4958.0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B143" s="3">
         <v>2021.0</v>
@@ -5231,16 +5464,19 @@
       <c r="G143" s="6">
         <v>667.0</v>
       </c>
-      <c r="H143" s="10">
+      <c r="H143" s="11">
         <v>0.5299</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="J143" s="10">
+        <v>3805.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B144" s="3">
         <v>2021.0</v>
@@ -5260,16 +5496,19 @@
       <c r="G144" s="6">
         <v>2181.0</v>
       </c>
-      <c r="H144" s="10">
+      <c r="H144" s="11">
         <v>0.4364</v>
       </c>
       <c r="I144" s="9">
         <v>57.0</v>
       </c>
+      <c r="J144" s="10">
+        <v>12970.0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B145" s="3">
         <v>2021.0</v>
@@ -5289,16 +5528,19 @@
       <c r="G145" s="6">
         <v>69.0</v>
       </c>
-      <c r="H145" s="10">
+      <c r="H145" s="11">
         <v>0.6052</v>
       </c>
-      <c r="I145" s="11">
+      <c r="I145" s="12">
         <v>2094.0</v>
+      </c>
+      <c r="J145" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B146" s="3">
         <v>2021.0</v>
@@ -5318,16 +5560,19 @@
       <c r="G146" s="6">
         <v>224.0</v>
       </c>
-      <c r="H146" s="10">
+      <c r="H146" s="11">
         <v>0.5359</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J146" s="10">
+        <v>1292.0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B147" s="3">
         <v>2021.0</v>
@@ -5347,16 +5592,19 @@
       <c r="G147" s="6">
         <v>451.0</v>
       </c>
-      <c r="H147" s="10">
+      <c r="H147" s="11">
         <v>0.4998</v>
       </c>
       <c r="I147" s="9">
         <v>780.0</v>
       </c>
+      <c r="J147" s="10">
+        <v>3040.0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B148" s="3">
         <v>2021.0</v>
@@ -5376,16 +5624,19 @@
       <c r="G148" s="6">
         <v>220.0</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H148" s="11">
         <v>0.4724</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J148" s="10">
+        <v>828.0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B149" s="3">
         <v>2021.0</v>
@@ -5405,16 +5656,19 @@
       <c r="G149" s="6">
         <v>1222.0</v>
       </c>
-      <c r="H149" s="10">
+      <c r="H149" s="11">
         <v>0.4479</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J149" s="10">
+        <v>5175.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B150" s="3">
         <v>2021.0</v>
@@ -5434,16 +5688,19 @@
       <c r="G150" s="6">
         <v>4631.0</v>
       </c>
-      <c r="H150" s="10">
+      <c r="H150" s="11">
         <v>0.3979</v>
       </c>
-      <c r="I150" s="11">
+      <c r="I150" s="12">
         <v>14108.0</v>
+      </c>
+      <c r="J150" s="10">
+        <v>11583.0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B151" s="3">
         <v>2021.0</v>
@@ -5463,16 +5720,19 @@
       <c r="G151" s="6">
         <v>530.0</v>
       </c>
-      <c r="H151" s="10">
+      <c r="H151" s="11">
         <v>0.4119</v>
       </c>
-      <c r="I151" s="11">
+      <c r="I151" s="12">
         <v>1102.0</v>
+      </c>
+      <c r="J151" s="10">
+        <v>1476.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B152" s="3">
         <v>2021.0</v>
@@ -5492,16 +5752,19 @@
       <c r="G152" s="6">
         <v>859.0</v>
       </c>
-      <c r="H152" s="10">
+      <c r="H152" s="11">
         <v>0.2739</v>
       </c>
       <c r="I152" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J152" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B153" s="3">
         <v>2021.0</v>
@@ -5521,16 +5784,19 @@
       <c r="G153" s="6">
         <v>189.0</v>
       </c>
-      <c r="H153" s="10">
+      <c r="H153" s="11">
         <v>0.4787</v>
       </c>
       <c r="I153" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J153" s="10">
+        <v>1299.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B154" s="3">
         <v>2021.0</v>
@@ -5550,16 +5816,19 @@
       <c r="G154" s="6">
         <v>1066.0</v>
       </c>
-      <c r="H154" s="10">
+      <c r="H154" s="11">
         <v>0.654</v>
       </c>
       <c r="I154" s="9">
         <v>229.0</v>
       </c>
+      <c r="J154" s="10">
+        <v>4831.0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B155" s="3">
         <v>2021.0</v>
@@ -5579,16 +5848,19 @@
       <c r="G155" s="6">
         <v>697.0</v>
       </c>
-      <c r="H155" s="10">
+      <c r="H155" s="11">
         <v>0.5153</v>
       </c>
       <c r="I155" s="9">
         <v>556.0</v>
       </c>
+      <c r="J155" s="10">
+        <v>2488.0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B156" s="3">
         <v>2021.0</v>
@@ -5608,16 +5880,19 @@
       <c r="G156" s="6">
         <v>1830.0</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="11">
         <v>0.4423</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="J156" s="10">
+        <v>3431.0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B157" s="3">
         <v>2021.0</v>
@@ -5637,2544 +5912,2547 @@
       <c r="G157" s="6">
         <v>105.0</v>
       </c>
-      <c r="H157" s="10">
+      <c r="H157" s="11">
         <v>0.657</v>
       </c>
       <c r="I157" s="9">
         <v>448.0</v>
       </c>
+      <c r="J157" s="7">
+        <v>447.0</v>
+      </c>
     </row>
     <row r="158">
-      <c r="I158" s="13"/>
+      <c r="I158" s="16"/>
     </row>
     <row r="159">
-      <c r="I159" s="13"/>
+      <c r="I159" s="16"/>
     </row>
     <row r="160">
-      <c r="I160" s="13"/>
+      <c r="I160" s="16"/>
     </row>
     <row r="161">
-      <c r="I161" s="13"/>
+      <c r="I161" s="16"/>
     </row>
     <row r="162">
-      <c r="I162" s="13"/>
+      <c r="I162" s="16"/>
     </row>
     <row r="163">
-      <c r="I163" s="13"/>
+      <c r="I163" s="16"/>
     </row>
     <row r="164">
-      <c r="I164" s="13"/>
+      <c r="I164" s="16"/>
     </row>
     <row r="165">
-      <c r="I165" s="13"/>
+      <c r="I165" s="16"/>
     </row>
     <row r="166">
-      <c r="I166" s="13"/>
+      <c r="I166" s="16"/>
     </row>
     <row r="167">
-      <c r="I167" s="13"/>
+      <c r="I167" s="16"/>
     </row>
     <row r="168">
-      <c r="I168" s="13"/>
+      <c r="I168" s="16"/>
     </row>
     <row r="169">
-      <c r="I169" s="13"/>
+      <c r="I169" s="16"/>
     </row>
     <row r="170">
-      <c r="I170" s="13"/>
+      <c r="I170" s="16"/>
     </row>
     <row r="171">
-      <c r="I171" s="13"/>
+      <c r="I171" s="16"/>
     </row>
     <row r="172">
-      <c r="I172" s="13"/>
+      <c r="I172" s="16"/>
     </row>
     <row r="173">
-      <c r="I173" s="13"/>
+      <c r="I173" s="16"/>
     </row>
     <row r="174">
-      <c r="I174" s="13"/>
+      <c r="I174" s="16"/>
     </row>
     <row r="175">
-      <c r="I175" s="13"/>
+      <c r="I175" s="16"/>
     </row>
     <row r="176">
-      <c r="I176" s="13"/>
+      <c r="I176" s="16"/>
     </row>
     <row r="177">
-      <c r="I177" s="13"/>
+      <c r="I177" s="16"/>
     </row>
     <row r="178">
-      <c r="I178" s="13"/>
+      <c r="I178" s="16"/>
     </row>
     <row r="179">
-      <c r="I179" s="13"/>
+      <c r="I179" s="16"/>
     </row>
     <row r="180">
-      <c r="I180" s="13"/>
+      <c r="I180" s="16"/>
     </row>
     <row r="181">
-      <c r="I181" s="13"/>
+      <c r="I181" s="16"/>
     </row>
     <row r="182">
-      <c r="I182" s="13"/>
+      <c r="I182" s="16"/>
     </row>
     <row r="183">
-      <c r="I183" s="13"/>
+      <c r="I183" s="16"/>
     </row>
     <row r="184">
-      <c r="I184" s="13"/>
+      <c r="I184" s="16"/>
     </row>
     <row r="185">
-      <c r="I185" s="13"/>
+      <c r="I185" s="16"/>
     </row>
     <row r="186">
-      <c r="I186" s="13"/>
+      <c r="I186" s="16"/>
     </row>
     <row r="187">
-      <c r="I187" s="13"/>
+      <c r="I187" s="16"/>
     </row>
     <row r="188">
-      <c r="I188" s="13"/>
+      <c r="I188" s="16"/>
     </row>
     <row r="189">
-      <c r="I189" s="13"/>
+      <c r="I189" s="16"/>
     </row>
     <row r="190">
-      <c r="I190" s="13"/>
+      <c r="I190" s="16"/>
     </row>
     <row r="191">
-      <c r="I191" s="13"/>
+      <c r="I191" s="16"/>
     </row>
     <row r="192">
-      <c r="I192" s="13"/>
+      <c r="I192" s="16"/>
     </row>
     <row r="193">
-      <c r="I193" s="13"/>
+      <c r="I193" s="16"/>
     </row>
     <row r="194">
-      <c r="I194" s="13"/>
+      <c r="I194" s="16"/>
     </row>
     <row r="195">
-      <c r="I195" s="13"/>
+      <c r="I195" s="16"/>
     </row>
     <row r="196">
-      <c r="I196" s="13"/>
+      <c r="I196" s="16"/>
     </row>
     <row r="197">
-      <c r="I197" s="13"/>
+      <c r="I197" s="16"/>
     </row>
     <row r="198">
-      <c r="I198" s="13"/>
+      <c r="I198" s="16"/>
     </row>
     <row r="199">
-      <c r="I199" s="13"/>
+      <c r="I199" s="16"/>
     </row>
     <row r="200">
-      <c r="I200" s="13"/>
+      <c r="I200" s="16"/>
     </row>
     <row r="201">
-      <c r="I201" s="13"/>
+      <c r="I201" s="16"/>
     </row>
     <row r="202">
-      <c r="I202" s="13"/>
+      <c r="I202" s="16"/>
     </row>
     <row r="203">
-      <c r="I203" s="13"/>
+      <c r="I203" s="16"/>
     </row>
     <row r="204">
-      <c r="I204" s="13"/>
+      <c r="I204" s="16"/>
     </row>
     <row r="205">
-      <c r="I205" s="13"/>
+      <c r="I205" s="16"/>
     </row>
     <row r="206">
-      <c r="I206" s="13"/>
+      <c r="I206" s="16"/>
     </row>
     <row r="207">
-      <c r="I207" s="13"/>
+      <c r="I207" s="16"/>
     </row>
     <row r="208">
-      <c r="I208" s="13"/>
+      <c r="I208" s="16"/>
     </row>
     <row r="209">
-      <c r="I209" s="13"/>
+      <c r="I209" s="16"/>
     </row>
     <row r="210">
-      <c r="I210" s="13"/>
+      <c r="I210" s="16"/>
     </row>
     <row r="211">
-      <c r="I211" s="13"/>
+      <c r="I211" s="16"/>
     </row>
     <row r="212">
-      <c r="I212" s="13"/>
+      <c r="I212" s="16"/>
     </row>
     <row r="213">
-      <c r="I213" s="13"/>
+      <c r="I213" s="16"/>
     </row>
     <row r="214">
-      <c r="I214" s="13"/>
+      <c r="I214" s="16"/>
     </row>
     <row r="215">
-      <c r="I215" s="13"/>
+      <c r="I215" s="16"/>
     </row>
     <row r="216">
-      <c r="I216" s="13"/>
+      <c r="I216" s="16"/>
     </row>
     <row r="217">
-      <c r="I217" s="13"/>
+      <c r="I217" s="16"/>
     </row>
     <row r="218">
-      <c r="I218" s="13"/>
+      <c r="I218" s="16"/>
     </row>
     <row r="219">
-      <c r="I219" s="13"/>
+      <c r="I219" s="16"/>
     </row>
     <row r="220">
-      <c r="I220" s="13"/>
+      <c r="I220" s="16"/>
     </row>
     <row r="221">
-      <c r="I221" s="13"/>
+      <c r="I221" s="16"/>
     </row>
     <row r="222">
-      <c r="I222" s="13"/>
+      <c r="I222" s="16"/>
     </row>
     <row r="223">
-      <c r="I223" s="13"/>
+      <c r="I223" s="16"/>
     </row>
     <row r="224">
-      <c r="I224" s="13"/>
+      <c r="I224" s="16"/>
     </row>
     <row r="225">
-      <c r="I225" s="13"/>
+      <c r="I225" s="16"/>
     </row>
     <row r="226">
-      <c r="I226" s="13"/>
+      <c r="I226" s="16"/>
     </row>
     <row r="227">
-      <c r="I227" s="13"/>
+      <c r="I227" s="16"/>
     </row>
     <row r="228">
-      <c r="I228" s="13"/>
+      <c r="I228" s="16"/>
     </row>
     <row r="229">
-      <c r="I229" s="13"/>
+      <c r="I229" s="16"/>
     </row>
     <row r="230">
-      <c r="I230" s="13"/>
+      <c r="I230" s="16"/>
     </row>
     <row r="231">
-      <c r="I231" s="13"/>
+      <c r="I231" s="16"/>
     </row>
     <row r="232">
-      <c r="I232" s="13"/>
+      <c r="I232" s="16"/>
     </row>
     <row r="233">
-      <c r="I233" s="13"/>
+      <c r="I233" s="16"/>
     </row>
     <row r="234">
-      <c r="I234" s="13"/>
+      <c r="I234" s="16"/>
     </row>
     <row r="235">
-      <c r="I235" s="13"/>
+      <c r="I235" s="16"/>
     </row>
     <row r="236">
-      <c r="I236" s="13"/>
+      <c r="I236" s="16"/>
     </row>
     <row r="237">
-      <c r="I237" s="13"/>
+      <c r="I237" s="16"/>
     </row>
     <row r="238">
-      <c r="I238" s="13"/>
+      <c r="I238" s="16"/>
     </row>
     <row r="239">
-      <c r="I239" s="13"/>
+      <c r="I239" s="16"/>
     </row>
     <row r="240">
-      <c r="I240" s="13"/>
+      <c r="I240" s="16"/>
     </row>
     <row r="241">
-      <c r="I241" s="13"/>
+      <c r="I241" s="16"/>
     </row>
     <row r="242">
-      <c r="I242" s="13"/>
+      <c r="I242" s="16"/>
     </row>
     <row r="243">
-      <c r="I243" s="13"/>
+      <c r="I243" s="16"/>
     </row>
     <row r="244">
-      <c r="I244" s="13"/>
+      <c r="I244" s="16"/>
     </row>
     <row r="245">
-      <c r="I245" s="13"/>
+      <c r="I245" s="16"/>
     </row>
     <row r="246">
-      <c r="I246" s="13"/>
+      <c r="I246" s="16"/>
     </row>
     <row r="247">
-      <c r="I247" s="13"/>
+      <c r="I247" s="16"/>
     </row>
     <row r="248">
-      <c r="I248" s="13"/>
+      <c r="I248" s="16"/>
     </row>
     <row r="249">
-      <c r="I249" s="13"/>
+      <c r="I249" s="16"/>
     </row>
     <row r="250">
-      <c r="I250" s="13"/>
+      <c r="I250" s="16"/>
     </row>
     <row r="251">
-      <c r="I251" s="13"/>
+      <c r="I251" s="16"/>
     </row>
     <row r="252">
-      <c r="I252" s="13"/>
+      <c r="I252" s="16"/>
     </row>
     <row r="253">
-      <c r="I253" s="13"/>
+      <c r="I253" s="16"/>
     </row>
     <row r="254">
-      <c r="I254" s="13"/>
+      <c r="I254" s="16"/>
     </row>
     <row r="255">
-      <c r="I255" s="13"/>
+      <c r="I255" s="16"/>
     </row>
     <row r="256">
-      <c r="I256" s="13"/>
+      <c r="I256" s="16"/>
     </row>
     <row r="257">
-      <c r="I257" s="13"/>
+      <c r="I257" s="16"/>
     </row>
     <row r="258">
-      <c r="I258" s="13"/>
+      <c r="I258" s="16"/>
     </row>
     <row r="259">
-      <c r="I259" s="13"/>
+      <c r="I259" s="16"/>
     </row>
     <row r="260">
-      <c r="I260" s="13"/>
+      <c r="I260" s="16"/>
     </row>
     <row r="261">
-      <c r="I261" s="13"/>
+      <c r="I261" s="16"/>
     </row>
     <row r="262">
-      <c r="I262" s="13"/>
+      <c r="I262" s="16"/>
     </row>
     <row r="263">
-      <c r="I263" s="13"/>
+      <c r="I263" s="16"/>
     </row>
     <row r="264">
-      <c r="I264" s="13"/>
+      <c r="I264" s="16"/>
     </row>
     <row r="265">
-      <c r="I265" s="13"/>
+      <c r="I265" s="16"/>
     </row>
     <row r="266">
-      <c r="I266" s="13"/>
+      <c r="I266" s="16"/>
     </row>
     <row r="267">
-      <c r="I267" s="13"/>
+      <c r="I267" s="16"/>
     </row>
     <row r="268">
-      <c r="I268" s="13"/>
+      <c r="I268" s="16"/>
     </row>
     <row r="269">
-      <c r="I269" s="13"/>
+      <c r="I269" s="16"/>
     </row>
     <row r="270">
-      <c r="I270" s="13"/>
+      <c r="I270" s="16"/>
     </row>
     <row r="271">
-      <c r="I271" s="13"/>
+      <c r="I271" s="16"/>
     </row>
     <row r="272">
-      <c r="I272" s="13"/>
+      <c r="I272" s="16"/>
     </row>
     <row r="273">
-      <c r="I273" s="13"/>
+      <c r="I273" s="16"/>
     </row>
     <row r="274">
-      <c r="I274" s="13"/>
+      <c r="I274" s="16"/>
     </row>
     <row r="275">
-      <c r="I275" s="13"/>
+      <c r="I275" s="16"/>
     </row>
     <row r="276">
-      <c r="I276" s="13"/>
+      <c r="I276" s="16"/>
     </row>
     <row r="277">
-      <c r="I277" s="13"/>
+      <c r="I277" s="16"/>
     </row>
     <row r="278">
-      <c r="I278" s="13"/>
+      <c r="I278" s="16"/>
     </row>
     <row r="279">
-      <c r="I279" s="13"/>
+      <c r="I279" s="16"/>
     </row>
     <row r="280">
-      <c r="I280" s="13"/>
+      <c r="I280" s="16"/>
     </row>
     <row r="281">
-      <c r="I281" s="13"/>
+      <c r="I281" s="16"/>
     </row>
     <row r="282">
-      <c r="I282" s="13"/>
+      <c r="I282" s="16"/>
     </row>
     <row r="283">
-      <c r="I283" s="13"/>
+      <c r="I283" s="16"/>
     </row>
     <row r="284">
-      <c r="I284" s="13"/>
+      <c r="I284" s="16"/>
     </row>
     <row r="285">
-      <c r="I285" s="13"/>
+      <c r="I285" s="16"/>
     </row>
     <row r="286">
-      <c r="I286" s="13"/>
+      <c r="I286" s="16"/>
     </row>
     <row r="287">
-      <c r="I287" s="13"/>
+      <c r="I287" s="16"/>
     </row>
     <row r="288">
-      <c r="I288" s="13"/>
+      <c r="I288" s="16"/>
     </row>
     <row r="289">
-      <c r="I289" s="13"/>
+      <c r="I289" s="16"/>
     </row>
     <row r="290">
-      <c r="I290" s="13"/>
+      <c r="I290" s="16"/>
     </row>
     <row r="291">
-      <c r="I291" s="13"/>
+      <c r="I291" s="16"/>
     </row>
     <row r="292">
-      <c r="I292" s="13"/>
+      <c r="I292" s="16"/>
     </row>
     <row r="293">
-      <c r="I293" s="13"/>
+      <c r="I293" s="16"/>
     </row>
     <row r="294">
-      <c r="I294" s="13"/>
+      <c r="I294" s="16"/>
     </row>
     <row r="295">
-      <c r="I295" s="13"/>
+      <c r="I295" s="16"/>
     </row>
     <row r="296">
-      <c r="I296" s="13"/>
+      <c r="I296" s="16"/>
     </row>
     <row r="297">
-      <c r="I297" s="13"/>
+      <c r="I297" s="16"/>
     </row>
     <row r="298">
-      <c r="I298" s="13"/>
+      <c r="I298" s="16"/>
     </row>
     <row r="299">
-      <c r="I299" s="13"/>
+      <c r="I299" s="16"/>
     </row>
     <row r="300">
-      <c r="I300" s="13"/>
+      <c r="I300" s="16"/>
     </row>
     <row r="301">
-      <c r="I301" s="13"/>
+      <c r="I301" s="16"/>
     </row>
     <row r="302">
-      <c r="I302" s="13"/>
+      <c r="I302" s="16"/>
     </row>
     <row r="303">
-      <c r="I303" s="13"/>
+      <c r="I303" s="16"/>
     </row>
     <row r="304">
-      <c r="I304" s="13"/>
+      <c r="I304" s="16"/>
     </row>
     <row r="305">
-      <c r="I305" s="13"/>
+      <c r="I305" s="16"/>
     </row>
     <row r="306">
-      <c r="I306" s="13"/>
+      <c r="I306" s="16"/>
     </row>
     <row r="307">
-      <c r="I307" s="13"/>
+      <c r="I307" s="16"/>
     </row>
     <row r="308">
-      <c r="I308" s="13"/>
+      <c r="I308" s="16"/>
     </row>
     <row r="309">
-      <c r="I309" s="13"/>
+      <c r="I309" s="16"/>
     </row>
     <row r="310">
-      <c r="I310" s="13"/>
+      <c r="I310" s="16"/>
     </row>
     <row r="311">
-      <c r="I311" s="13"/>
+      <c r="I311" s="16"/>
     </row>
     <row r="312">
-      <c r="I312" s="13"/>
+      <c r="I312" s="16"/>
     </row>
     <row r="313">
-      <c r="I313" s="13"/>
+      <c r="I313" s="16"/>
     </row>
     <row r="314">
-      <c r="I314" s="13"/>
+      <c r="I314" s="16"/>
     </row>
     <row r="315">
-      <c r="I315" s="13"/>
+      <c r="I315" s="16"/>
     </row>
     <row r="316">
-      <c r="I316" s="13"/>
+      <c r="I316" s="16"/>
     </row>
     <row r="317">
-      <c r="I317" s="13"/>
+      <c r="I317" s="16"/>
     </row>
     <row r="318">
-      <c r="I318" s="13"/>
+      <c r="I318" s="16"/>
     </row>
     <row r="319">
-      <c r="I319" s="13"/>
+      <c r="I319" s="16"/>
     </row>
     <row r="320">
-      <c r="I320" s="13"/>
+      <c r="I320" s="16"/>
     </row>
     <row r="321">
-      <c r="I321" s="13"/>
+      <c r="I321" s="16"/>
     </row>
     <row r="322">
-      <c r="I322" s="13"/>
+      <c r="I322" s="16"/>
     </row>
     <row r="323">
-      <c r="I323" s="13"/>
+      <c r="I323" s="16"/>
     </row>
     <row r="324">
-      <c r="I324" s="13"/>
+      <c r="I324" s="16"/>
     </row>
     <row r="325">
-      <c r="I325" s="13"/>
+      <c r="I325" s="16"/>
     </row>
     <row r="326">
-      <c r="I326" s="13"/>
+      <c r="I326" s="16"/>
     </row>
     <row r="327">
-      <c r="I327" s="13"/>
+      <c r="I327" s="16"/>
     </row>
     <row r="328">
-      <c r="I328" s="13"/>
+      <c r="I328" s="16"/>
     </row>
     <row r="329">
-      <c r="I329" s="13"/>
+      <c r="I329" s="16"/>
     </row>
     <row r="330">
-      <c r="I330" s="13"/>
+      <c r="I330" s="16"/>
     </row>
     <row r="331">
-      <c r="I331" s="13"/>
+      <c r="I331" s="16"/>
     </row>
     <row r="332">
-      <c r="I332" s="13"/>
+      <c r="I332" s="16"/>
     </row>
     <row r="333">
-      <c r="I333" s="13"/>
+      <c r="I333" s="16"/>
     </row>
     <row r="334">
-      <c r="I334" s="13"/>
+      <c r="I334" s="16"/>
     </row>
     <row r="335">
-      <c r="I335" s="13"/>
+      <c r="I335" s="16"/>
     </row>
     <row r="336">
-      <c r="I336" s="13"/>
+      <c r="I336" s="16"/>
     </row>
     <row r="337">
-      <c r="I337" s="13"/>
+      <c r="I337" s="16"/>
     </row>
     <row r="338">
-      <c r="I338" s="13"/>
+      <c r="I338" s="16"/>
     </row>
     <row r="339">
-      <c r="I339" s="13"/>
+      <c r="I339" s="16"/>
     </row>
     <row r="340">
-      <c r="I340" s="13"/>
+      <c r="I340" s="16"/>
     </row>
     <row r="341">
-      <c r="I341" s="13"/>
+      <c r="I341" s="16"/>
     </row>
     <row r="342">
-      <c r="I342" s="13"/>
+      <c r="I342" s="16"/>
     </row>
     <row r="343">
-      <c r="I343" s="13"/>
+      <c r="I343" s="16"/>
     </row>
     <row r="344">
-      <c r="I344" s="13"/>
+      <c r="I344" s="16"/>
     </row>
     <row r="345">
-      <c r="I345" s="13"/>
+      <c r="I345" s="16"/>
     </row>
     <row r="346">
-      <c r="I346" s="13"/>
+      <c r="I346" s="16"/>
     </row>
     <row r="347">
-      <c r="I347" s="13"/>
+      <c r="I347" s="16"/>
     </row>
     <row r="348">
-      <c r="I348" s="13"/>
+      <c r="I348" s="16"/>
     </row>
     <row r="349">
-      <c r="I349" s="13"/>
+      <c r="I349" s="16"/>
     </row>
     <row r="350">
-      <c r="I350" s="13"/>
+      <c r="I350" s="16"/>
     </row>
     <row r="351">
-      <c r="I351" s="13"/>
+      <c r="I351" s="16"/>
     </row>
     <row r="352">
-      <c r="I352" s="13"/>
+      <c r="I352" s="16"/>
     </row>
     <row r="353">
-      <c r="I353" s="13"/>
+      <c r="I353" s="16"/>
     </row>
     <row r="354">
-      <c r="I354" s="13"/>
+      <c r="I354" s="16"/>
     </row>
     <row r="355">
-      <c r="I355" s="13"/>
+      <c r="I355" s="16"/>
     </row>
     <row r="356">
-      <c r="I356" s="13"/>
+      <c r="I356" s="16"/>
     </row>
     <row r="357">
-      <c r="I357" s="13"/>
+      <c r="I357" s="16"/>
     </row>
     <row r="358">
-      <c r="I358" s="13"/>
+      <c r="I358" s="16"/>
     </row>
     <row r="359">
-      <c r="I359" s="13"/>
+      <c r="I359" s="16"/>
     </row>
     <row r="360">
-      <c r="I360" s="13"/>
+      <c r="I360" s="16"/>
     </row>
     <row r="361">
-      <c r="I361" s="13"/>
+      <c r="I361" s="16"/>
     </row>
     <row r="362">
-      <c r="I362" s="13"/>
+      <c r="I362" s="16"/>
     </row>
     <row r="363">
-      <c r="I363" s="13"/>
+      <c r="I363" s="16"/>
     </row>
     <row r="364">
-      <c r="I364" s="13"/>
+      <c r="I364" s="16"/>
     </row>
     <row r="365">
-      <c r="I365" s="13"/>
+      <c r="I365" s="16"/>
     </row>
     <row r="366">
-      <c r="I366" s="13"/>
+      <c r="I366" s="16"/>
     </row>
     <row r="367">
-      <c r="I367" s="13"/>
+      <c r="I367" s="16"/>
     </row>
     <row r="368">
-      <c r="I368" s="13"/>
+      <c r="I368" s="16"/>
     </row>
     <row r="369">
-      <c r="I369" s="13"/>
+      <c r="I369" s="16"/>
     </row>
     <row r="370">
-      <c r="I370" s="13"/>
+      <c r="I370" s="16"/>
     </row>
     <row r="371">
-      <c r="I371" s="13"/>
+      <c r="I371" s="16"/>
     </row>
     <row r="372">
-      <c r="I372" s="13"/>
+      <c r="I372" s="16"/>
     </row>
     <row r="373">
-      <c r="I373" s="13"/>
+      <c r="I373" s="16"/>
     </row>
     <row r="374">
-      <c r="I374" s="13"/>
+      <c r="I374" s="16"/>
     </row>
     <row r="375">
-      <c r="I375" s="13"/>
+      <c r="I375" s="16"/>
     </row>
     <row r="376">
-      <c r="I376" s="13"/>
+      <c r="I376" s="16"/>
     </row>
     <row r="377">
-      <c r="I377" s="13"/>
+      <c r="I377" s="16"/>
     </row>
     <row r="378">
-      <c r="I378" s="13"/>
+      <c r="I378" s="16"/>
     </row>
     <row r="379">
-      <c r="I379" s="13"/>
+      <c r="I379" s="16"/>
     </row>
     <row r="380">
-      <c r="I380" s="13"/>
+      <c r="I380" s="16"/>
     </row>
     <row r="381">
-      <c r="I381" s="13"/>
+      <c r="I381" s="16"/>
     </row>
     <row r="382">
-      <c r="I382" s="13"/>
+      <c r="I382" s="16"/>
     </row>
     <row r="383">
-      <c r="I383" s="13"/>
+      <c r="I383" s="16"/>
     </row>
     <row r="384">
-      <c r="I384" s="13"/>
+      <c r="I384" s="16"/>
     </row>
     <row r="385">
-      <c r="I385" s="13"/>
+      <c r="I385" s="16"/>
     </row>
     <row r="386">
-      <c r="I386" s="13"/>
+      <c r="I386" s="16"/>
     </row>
     <row r="387">
-      <c r="I387" s="13"/>
+      <c r="I387" s="16"/>
     </row>
     <row r="388">
-      <c r="I388" s="13"/>
+      <c r="I388" s="16"/>
     </row>
     <row r="389">
-      <c r="I389" s="13"/>
+      <c r="I389" s="16"/>
     </row>
     <row r="390">
-      <c r="I390" s="13"/>
+      <c r="I390" s="16"/>
     </row>
     <row r="391">
-      <c r="I391" s="13"/>
+      <c r="I391" s="16"/>
     </row>
     <row r="392">
-      <c r="I392" s="13"/>
+      <c r="I392" s="16"/>
     </row>
     <row r="393">
-      <c r="I393" s="13"/>
+      <c r="I393" s="16"/>
     </row>
     <row r="394">
-      <c r="I394" s="13"/>
+      <c r="I394" s="16"/>
     </row>
     <row r="395">
-      <c r="I395" s="13"/>
+      <c r="I395" s="16"/>
     </row>
     <row r="396">
-      <c r="I396" s="13"/>
+      <c r="I396" s="16"/>
     </row>
     <row r="397">
-      <c r="I397" s="13"/>
+      <c r="I397" s="16"/>
     </row>
     <row r="398">
-      <c r="I398" s="13"/>
+      <c r="I398" s="16"/>
     </row>
     <row r="399">
-      <c r="I399" s="13"/>
+      <c r="I399" s="16"/>
     </row>
     <row r="400">
-      <c r="I400" s="13"/>
+      <c r="I400" s="16"/>
     </row>
     <row r="401">
-      <c r="I401" s="13"/>
+      <c r="I401" s="16"/>
     </row>
     <row r="402">
-      <c r="I402" s="13"/>
+      <c r="I402" s="16"/>
     </row>
     <row r="403">
-      <c r="I403" s="13"/>
+      <c r="I403" s="16"/>
     </row>
     <row r="404">
-      <c r="I404" s="13"/>
+      <c r="I404" s="16"/>
     </row>
     <row r="405">
-      <c r="I405" s="13"/>
+      <c r="I405" s="16"/>
     </row>
     <row r="406">
-      <c r="I406" s="13"/>
+      <c r="I406" s="16"/>
     </row>
     <row r="407">
-      <c r="I407" s="13"/>
+      <c r="I407" s="16"/>
     </row>
     <row r="408">
-      <c r="I408" s="13"/>
+      <c r="I408" s="16"/>
     </row>
     <row r="409">
-      <c r="I409" s="13"/>
+      <c r="I409" s="16"/>
     </row>
     <row r="410">
-      <c r="I410" s="13"/>
+      <c r="I410" s="16"/>
     </row>
     <row r="411">
-      <c r="I411" s="13"/>
+      <c r="I411" s="16"/>
     </row>
     <row r="412">
-      <c r="I412" s="13"/>
+      <c r="I412" s="16"/>
     </row>
     <row r="413">
-      <c r="I413" s="13"/>
+      <c r="I413" s="16"/>
     </row>
     <row r="414">
-      <c r="I414" s="13"/>
+      <c r="I414" s="16"/>
     </row>
     <row r="415">
-      <c r="I415" s="13"/>
+      <c r="I415" s="16"/>
     </row>
     <row r="416">
-      <c r="I416" s="13"/>
+      <c r="I416" s="16"/>
     </row>
     <row r="417">
-      <c r="I417" s="13"/>
+      <c r="I417" s="16"/>
     </row>
     <row r="418">
-      <c r="I418" s="13"/>
+      <c r="I418" s="16"/>
     </row>
     <row r="419">
-      <c r="I419" s="13"/>
+      <c r="I419" s="16"/>
     </row>
     <row r="420">
-      <c r="I420" s="13"/>
+      <c r="I420" s="16"/>
     </row>
     <row r="421">
-      <c r="I421" s="13"/>
+      <c r="I421" s="16"/>
     </row>
     <row r="422">
-      <c r="I422" s="13"/>
+      <c r="I422" s="16"/>
     </row>
     <row r="423">
-      <c r="I423" s="13"/>
+      <c r="I423" s="16"/>
     </row>
     <row r="424">
-      <c r="I424" s="13"/>
+      <c r="I424" s="16"/>
     </row>
     <row r="425">
-      <c r="I425" s="13"/>
+      <c r="I425" s="16"/>
     </row>
     <row r="426">
-      <c r="I426" s="13"/>
+      <c r="I426" s="16"/>
     </row>
     <row r="427">
-      <c r="I427" s="13"/>
+      <c r="I427" s="16"/>
     </row>
     <row r="428">
-      <c r="I428" s="13"/>
+      <c r="I428" s="16"/>
     </row>
     <row r="429">
-      <c r="I429" s="13"/>
+      <c r="I429" s="16"/>
     </row>
     <row r="430">
-      <c r="I430" s="13"/>
+      <c r="I430" s="16"/>
     </row>
     <row r="431">
-      <c r="I431" s="13"/>
+      <c r="I431" s="16"/>
     </row>
     <row r="432">
-      <c r="I432" s="13"/>
+      <c r="I432" s="16"/>
     </row>
     <row r="433">
-      <c r="I433" s="13"/>
+      <c r="I433" s="16"/>
     </row>
     <row r="434">
-      <c r="I434" s="13"/>
+      <c r="I434" s="16"/>
     </row>
     <row r="435">
-      <c r="I435" s="13"/>
+      <c r="I435" s="16"/>
     </row>
     <row r="436">
-      <c r="I436" s="13"/>
+      <c r="I436" s="16"/>
     </row>
     <row r="437">
-      <c r="I437" s="13"/>
+      <c r="I437" s="16"/>
     </row>
     <row r="438">
-      <c r="I438" s="13"/>
+      <c r="I438" s="16"/>
     </row>
     <row r="439">
-      <c r="I439" s="13"/>
+      <c r="I439" s="16"/>
     </row>
     <row r="440">
-      <c r="I440" s="13"/>
+      <c r="I440" s="16"/>
     </row>
     <row r="441">
-      <c r="I441" s="13"/>
+      <c r="I441" s="16"/>
     </row>
     <row r="442">
-      <c r="I442" s="13"/>
+      <c r="I442" s="16"/>
     </row>
     <row r="443">
-      <c r="I443" s="13"/>
+      <c r="I443" s="16"/>
     </row>
     <row r="444">
-      <c r="I444" s="13"/>
+      <c r="I444" s="16"/>
     </row>
     <row r="445">
-      <c r="I445" s="13"/>
+      <c r="I445" s="16"/>
     </row>
     <row r="446">
-      <c r="I446" s="13"/>
+      <c r="I446" s="16"/>
     </row>
     <row r="447">
-      <c r="I447" s="13"/>
+      <c r="I447" s="16"/>
     </row>
     <row r="448">
-      <c r="I448" s="13"/>
+      <c r="I448" s="16"/>
     </row>
     <row r="449">
-      <c r="I449" s="13"/>
+      <c r="I449" s="16"/>
     </row>
     <row r="450">
-      <c r="I450" s="13"/>
+      <c r="I450" s="16"/>
     </row>
     <row r="451">
-      <c r="I451" s="13"/>
+      <c r="I451" s="16"/>
     </row>
     <row r="452">
-      <c r="I452" s="13"/>
+      <c r="I452" s="16"/>
     </row>
     <row r="453">
-      <c r="I453" s="13"/>
+      <c r="I453" s="16"/>
     </row>
     <row r="454">
-      <c r="I454" s="13"/>
+      <c r="I454" s="16"/>
     </row>
     <row r="455">
-      <c r="I455" s="13"/>
+      <c r="I455" s="16"/>
     </row>
     <row r="456">
-      <c r="I456" s="13"/>
+      <c r="I456" s="16"/>
     </row>
     <row r="457">
-      <c r="I457" s="13"/>
+      <c r="I457" s="16"/>
     </row>
     <row r="458">
-      <c r="I458" s="13"/>
+      <c r="I458" s="16"/>
     </row>
     <row r="459">
-      <c r="I459" s="13"/>
+      <c r="I459" s="16"/>
     </row>
     <row r="460">
-      <c r="I460" s="13"/>
+      <c r="I460" s="16"/>
     </row>
     <row r="461">
-      <c r="I461" s="13"/>
+      <c r="I461" s="16"/>
     </row>
     <row r="462">
-      <c r="I462" s="13"/>
+      <c r="I462" s="16"/>
     </row>
     <row r="463">
-      <c r="I463" s="13"/>
+      <c r="I463" s="16"/>
     </row>
     <row r="464">
-      <c r="I464" s="13"/>
+      <c r="I464" s="16"/>
     </row>
     <row r="465">
-      <c r="I465" s="13"/>
+      <c r="I465" s="16"/>
     </row>
     <row r="466">
-      <c r="I466" s="13"/>
+      <c r="I466" s="16"/>
     </row>
     <row r="467">
-      <c r="I467" s="13"/>
+      <c r="I467" s="16"/>
     </row>
     <row r="468">
-      <c r="I468" s="13"/>
+      <c r="I468" s="16"/>
     </row>
     <row r="469">
-      <c r="I469" s="13"/>
+      <c r="I469" s="16"/>
     </row>
     <row r="470">
-      <c r="I470" s="13"/>
+      <c r="I470" s="16"/>
     </row>
     <row r="471">
-      <c r="I471" s="13"/>
+      <c r="I471" s="16"/>
     </row>
     <row r="472">
-      <c r="I472" s="13"/>
+      <c r="I472" s="16"/>
     </row>
     <row r="473">
-      <c r="I473" s="13"/>
+      <c r="I473" s="16"/>
     </row>
     <row r="474">
-      <c r="I474" s="13"/>
+      <c r="I474" s="16"/>
     </row>
     <row r="475">
-      <c r="I475" s="13"/>
+      <c r="I475" s="16"/>
     </row>
     <row r="476">
-      <c r="I476" s="13"/>
+      <c r="I476" s="16"/>
     </row>
     <row r="477">
-      <c r="I477" s="13"/>
+      <c r="I477" s="16"/>
     </row>
     <row r="478">
-      <c r="I478" s="13"/>
+      <c r="I478" s="16"/>
     </row>
     <row r="479">
-      <c r="I479" s="13"/>
+      <c r="I479" s="16"/>
     </row>
     <row r="480">
-      <c r="I480" s="13"/>
+      <c r="I480" s="16"/>
     </row>
     <row r="481">
-      <c r="I481" s="13"/>
+      <c r="I481" s="16"/>
     </row>
     <row r="482">
-      <c r="I482" s="13"/>
+      <c r="I482" s="16"/>
     </row>
     <row r="483">
-      <c r="I483" s="13"/>
+      <c r="I483" s="16"/>
     </row>
     <row r="484">
-      <c r="I484" s="13"/>
+      <c r="I484" s="16"/>
     </row>
     <row r="485">
-      <c r="I485" s="13"/>
+      <c r="I485" s="16"/>
     </row>
     <row r="486">
-      <c r="I486" s="13"/>
+      <c r="I486" s="16"/>
     </row>
     <row r="487">
-      <c r="I487" s="13"/>
+      <c r="I487" s="16"/>
     </row>
     <row r="488">
-      <c r="I488" s="13"/>
+      <c r="I488" s="16"/>
     </row>
     <row r="489">
-      <c r="I489" s="13"/>
+      <c r="I489" s="16"/>
     </row>
     <row r="490">
-      <c r="I490" s="13"/>
+      <c r="I490" s="16"/>
     </row>
     <row r="491">
-      <c r="I491" s="13"/>
+      <c r="I491" s="16"/>
     </row>
     <row r="492">
-      <c r="I492" s="13"/>
+      <c r="I492" s="16"/>
     </row>
     <row r="493">
-      <c r="I493" s="13"/>
+      <c r="I493" s="16"/>
     </row>
     <row r="494">
-      <c r="I494" s="13"/>
+      <c r="I494" s="16"/>
     </row>
     <row r="495">
-      <c r="I495" s="13"/>
+      <c r="I495" s="16"/>
     </row>
     <row r="496">
-      <c r="I496" s="13"/>
+      <c r="I496" s="16"/>
     </row>
     <row r="497">
-      <c r="I497" s="13"/>
+      <c r="I497" s="16"/>
     </row>
     <row r="498">
-      <c r="I498" s="13"/>
+      <c r="I498" s="16"/>
     </row>
     <row r="499">
-      <c r="I499" s="13"/>
+      <c r="I499" s="16"/>
     </row>
     <row r="500">
-      <c r="I500" s="13"/>
+      <c r="I500" s="16"/>
     </row>
     <row r="501">
-      <c r="I501" s="13"/>
+      <c r="I501" s="16"/>
     </row>
     <row r="502">
-      <c r="I502" s="13"/>
+      <c r="I502" s="16"/>
     </row>
     <row r="503">
-      <c r="I503" s="13"/>
+      <c r="I503" s="16"/>
     </row>
     <row r="504">
-      <c r="I504" s="13"/>
+      <c r="I504" s="16"/>
     </row>
     <row r="505">
-      <c r="I505" s="13"/>
+      <c r="I505" s="16"/>
     </row>
     <row r="506">
-      <c r="I506" s="13"/>
+      <c r="I506" s="16"/>
     </row>
     <row r="507">
-      <c r="I507" s="13"/>
+      <c r="I507" s="16"/>
     </row>
     <row r="508">
-      <c r="I508" s="13"/>
+      <c r="I508" s="16"/>
     </row>
     <row r="509">
-      <c r="I509" s="13"/>
+      <c r="I509" s="16"/>
     </row>
     <row r="510">
-      <c r="I510" s="13"/>
+      <c r="I510" s="16"/>
     </row>
     <row r="511">
-      <c r="I511" s="13"/>
+      <c r="I511" s="16"/>
     </row>
     <row r="512">
-      <c r="I512" s="13"/>
+      <c r="I512" s="16"/>
     </row>
     <row r="513">
-      <c r="I513" s="13"/>
+      <c r="I513" s="16"/>
     </row>
     <row r="514">
-      <c r="I514" s="13"/>
+      <c r="I514" s="16"/>
     </row>
     <row r="515">
-      <c r="I515" s="13"/>
+      <c r="I515" s="16"/>
     </row>
     <row r="516">
-      <c r="I516" s="13"/>
+      <c r="I516" s="16"/>
     </row>
     <row r="517">
-      <c r="I517" s="13"/>
+      <c r="I517" s="16"/>
     </row>
     <row r="518">
-      <c r="I518" s="13"/>
+      <c r="I518" s="16"/>
     </row>
     <row r="519">
-      <c r="I519" s="13"/>
+      <c r="I519" s="16"/>
     </row>
     <row r="520">
-      <c r="I520" s="13"/>
+      <c r="I520" s="16"/>
     </row>
     <row r="521">
-      <c r="I521" s="13"/>
+      <c r="I521" s="16"/>
     </row>
     <row r="522">
-      <c r="I522" s="13"/>
+      <c r="I522" s="16"/>
     </row>
     <row r="523">
-      <c r="I523" s="13"/>
+      <c r="I523" s="16"/>
     </row>
     <row r="524">
-      <c r="I524" s="13"/>
+      <c r="I524" s="16"/>
     </row>
     <row r="525">
-      <c r="I525" s="13"/>
+      <c r="I525" s="16"/>
     </row>
     <row r="526">
-      <c r="I526" s="13"/>
+      <c r="I526" s="16"/>
     </row>
     <row r="527">
-      <c r="I527" s="13"/>
+      <c r="I527" s="16"/>
     </row>
     <row r="528">
-      <c r="I528" s="13"/>
+      <c r="I528" s="16"/>
     </row>
     <row r="529">
-      <c r="I529" s="13"/>
+      <c r="I529" s="16"/>
     </row>
     <row r="530">
-      <c r="I530" s="13"/>
+      <c r="I530" s="16"/>
     </row>
     <row r="531">
-      <c r="I531" s="13"/>
+      <c r="I531" s="16"/>
     </row>
     <row r="532">
-      <c r="I532" s="13"/>
+      <c r="I532" s="16"/>
     </row>
     <row r="533">
-      <c r="I533" s="13"/>
+      <c r="I533" s="16"/>
     </row>
     <row r="534">
-      <c r="I534" s="13"/>
+      <c r="I534" s="16"/>
     </row>
     <row r="535">
-      <c r="I535" s="13"/>
+      <c r="I535" s="16"/>
     </row>
     <row r="536">
-      <c r="I536" s="13"/>
+      <c r="I536" s="16"/>
     </row>
     <row r="537">
-      <c r="I537" s="13"/>
+      <c r="I537" s="16"/>
     </row>
     <row r="538">
-      <c r="I538" s="13"/>
+      <c r="I538" s="16"/>
     </row>
     <row r="539">
-      <c r="I539" s="13"/>
+      <c r="I539" s="16"/>
     </row>
     <row r="540">
-      <c r="I540" s="13"/>
+      <c r="I540" s="16"/>
     </row>
     <row r="541">
-      <c r="I541" s="13"/>
+      <c r="I541" s="16"/>
     </row>
     <row r="542">
-      <c r="I542" s="13"/>
+      <c r="I542" s="16"/>
     </row>
     <row r="543">
-      <c r="I543" s="13"/>
+      <c r="I543" s="16"/>
     </row>
     <row r="544">
-      <c r="I544" s="13"/>
+      <c r="I544" s="16"/>
     </row>
     <row r="545">
-      <c r="I545" s="13"/>
+      <c r="I545" s="16"/>
     </row>
     <row r="546">
-      <c r="I546" s="13"/>
+      <c r="I546" s="16"/>
     </row>
     <row r="547">
-      <c r="I547" s="13"/>
+      <c r="I547" s="16"/>
     </row>
     <row r="548">
-      <c r="I548" s="13"/>
+      <c r="I548" s="16"/>
     </row>
     <row r="549">
-      <c r="I549" s="13"/>
+      <c r="I549" s="16"/>
     </row>
     <row r="550">
-      <c r="I550" s="13"/>
+      <c r="I550" s="16"/>
     </row>
     <row r="551">
-      <c r="I551" s="13"/>
+      <c r="I551" s="16"/>
     </row>
     <row r="552">
-      <c r="I552" s="13"/>
+      <c r="I552" s="16"/>
     </row>
     <row r="553">
-      <c r="I553" s="13"/>
+      <c r="I553" s="16"/>
     </row>
     <row r="554">
-      <c r="I554" s="13"/>
+      <c r="I554" s="16"/>
     </row>
     <row r="555">
-      <c r="I555" s="13"/>
+      <c r="I555" s="16"/>
     </row>
     <row r="556">
-      <c r="I556" s="13"/>
+      <c r="I556" s="16"/>
     </row>
     <row r="557">
-      <c r="I557" s="13"/>
+      <c r="I557" s="16"/>
     </row>
     <row r="558">
-      <c r="I558" s="13"/>
+      <c r="I558" s="16"/>
     </row>
     <row r="559">
-      <c r="I559" s="13"/>
+      <c r="I559" s="16"/>
     </row>
     <row r="560">
-      <c r="I560" s="13"/>
+      <c r="I560" s="16"/>
     </row>
     <row r="561">
-      <c r="I561" s="13"/>
+      <c r="I561" s="16"/>
     </row>
     <row r="562">
-      <c r="I562" s="13"/>
+      <c r="I562" s="16"/>
     </row>
     <row r="563">
-      <c r="I563" s="13"/>
+      <c r="I563" s="16"/>
     </row>
     <row r="564">
-      <c r="I564" s="13"/>
+      <c r="I564" s="16"/>
     </row>
     <row r="565">
-      <c r="I565" s="13"/>
+      <c r="I565" s="16"/>
     </row>
     <row r="566">
-      <c r="I566" s="13"/>
+      <c r="I566" s="16"/>
     </row>
     <row r="567">
-      <c r="I567" s="13"/>
+      <c r="I567" s="16"/>
     </row>
     <row r="568">
-      <c r="I568" s="13"/>
+      <c r="I568" s="16"/>
     </row>
     <row r="569">
-      <c r="I569" s="13"/>
+      <c r="I569" s="16"/>
     </row>
     <row r="570">
-      <c r="I570" s="13"/>
+      <c r="I570" s="16"/>
     </row>
     <row r="571">
-      <c r="I571" s="13"/>
+      <c r="I571" s="16"/>
     </row>
     <row r="572">
-      <c r="I572" s="13"/>
+      <c r="I572" s="16"/>
     </row>
     <row r="573">
-      <c r="I573" s="13"/>
+      <c r="I573" s="16"/>
     </row>
     <row r="574">
-      <c r="I574" s="13"/>
+      <c r="I574" s="16"/>
     </row>
     <row r="575">
-      <c r="I575" s="13"/>
+      <c r="I575" s="16"/>
     </row>
     <row r="576">
-      <c r="I576" s="13"/>
+      <c r="I576" s="16"/>
     </row>
     <row r="577">
-      <c r="I577" s="13"/>
+      <c r="I577" s="16"/>
     </row>
     <row r="578">
-      <c r="I578" s="13"/>
+      <c r="I578" s="16"/>
     </row>
     <row r="579">
-      <c r="I579" s="13"/>
+      <c r="I579" s="16"/>
     </row>
     <row r="580">
-      <c r="I580" s="13"/>
+      <c r="I580" s="16"/>
     </row>
     <row r="581">
-      <c r="I581" s="13"/>
+      <c r="I581" s="16"/>
     </row>
     <row r="582">
-      <c r="I582" s="13"/>
+      <c r="I582" s="16"/>
     </row>
     <row r="583">
-      <c r="I583" s="13"/>
+      <c r="I583" s="16"/>
     </row>
     <row r="584">
-      <c r="I584" s="13"/>
+      <c r="I584" s="16"/>
     </row>
     <row r="585">
-      <c r="I585" s="13"/>
+      <c r="I585" s="16"/>
     </row>
     <row r="586">
-      <c r="I586" s="13"/>
+      <c r="I586" s="16"/>
     </row>
     <row r="587">
-      <c r="I587" s="13"/>
+      <c r="I587" s="16"/>
     </row>
     <row r="588">
-      <c r="I588" s="13"/>
+      <c r="I588" s="16"/>
     </row>
     <row r="589">
-      <c r="I589" s="13"/>
+      <c r="I589" s="16"/>
     </row>
     <row r="590">
-      <c r="I590" s="13"/>
+      <c r="I590" s="16"/>
     </row>
     <row r="591">
-      <c r="I591" s="13"/>
+      <c r="I591" s="16"/>
     </row>
     <row r="592">
-      <c r="I592" s="13"/>
+      <c r="I592" s="16"/>
     </row>
     <row r="593">
-      <c r="I593" s="13"/>
+      <c r="I593" s="16"/>
     </row>
     <row r="594">
-      <c r="I594" s="13"/>
+      <c r="I594" s="16"/>
     </row>
     <row r="595">
-      <c r="I595" s="13"/>
+      <c r="I595" s="16"/>
     </row>
     <row r="596">
-      <c r="I596" s="13"/>
+      <c r="I596" s="16"/>
     </row>
     <row r="597">
-      <c r="I597" s="13"/>
+      <c r="I597" s="16"/>
     </row>
     <row r="598">
-      <c r="I598" s="13"/>
+      <c r="I598" s="16"/>
     </row>
     <row r="599">
-      <c r="I599" s="13"/>
+      <c r="I599" s="16"/>
     </row>
     <row r="600">
-      <c r="I600" s="13"/>
+      <c r="I600" s="16"/>
     </row>
     <row r="601">
-      <c r="I601" s="13"/>
+      <c r="I601" s="16"/>
     </row>
     <row r="602">
-      <c r="I602" s="13"/>
+      <c r="I602" s="16"/>
     </row>
     <row r="603">
-      <c r="I603" s="13"/>
+      <c r="I603" s="16"/>
     </row>
     <row r="604">
-      <c r="I604" s="13"/>
+      <c r="I604" s="16"/>
     </row>
     <row r="605">
-      <c r="I605" s="13"/>
+      <c r="I605" s="16"/>
     </row>
     <row r="606">
-      <c r="I606" s="13"/>
+      <c r="I606" s="16"/>
     </row>
     <row r="607">
-      <c r="I607" s="13"/>
+      <c r="I607" s="16"/>
     </row>
     <row r="608">
-      <c r="I608" s="13"/>
+      <c r="I608" s="16"/>
     </row>
     <row r="609">
-      <c r="I609" s="13"/>
+      <c r="I609" s="16"/>
     </row>
     <row r="610">
-      <c r="I610" s="13"/>
+      <c r="I610" s="16"/>
     </row>
     <row r="611">
-      <c r="I611" s="13"/>
+      <c r="I611" s="16"/>
     </row>
     <row r="612">
-      <c r="I612" s="13"/>
+      <c r="I612" s="16"/>
     </row>
     <row r="613">
-      <c r="I613" s="13"/>
+      <c r="I613" s="16"/>
     </row>
     <row r="614">
-      <c r="I614" s="13"/>
+      <c r="I614" s="16"/>
     </row>
     <row r="615">
-      <c r="I615" s="13"/>
+      <c r="I615" s="16"/>
     </row>
     <row r="616">
-      <c r="I616" s="13"/>
+      <c r="I616" s="16"/>
     </row>
     <row r="617">
-      <c r="I617" s="13"/>
+      <c r="I617" s="16"/>
     </row>
     <row r="618">
-      <c r="I618" s="13"/>
+      <c r="I618" s="16"/>
     </row>
     <row r="619">
-      <c r="I619" s="13"/>
+      <c r="I619" s="16"/>
     </row>
     <row r="620">
-      <c r="I620" s="13"/>
+      <c r="I620" s="16"/>
     </row>
     <row r="621">
-      <c r="I621" s="13"/>
+      <c r="I621" s="16"/>
     </row>
     <row r="622">
-      <c r="I622" s="13"/>
+      <c r="I622" s="16"/>
     </row>
     <row r="623">
-      <c r="I623" s="13"/>
+      <c r="I623" s="16"/>
     </row>
     <row r="624">
-      <c r="I624" s="13"/>
+      <c r="I624" s="16"/>
     </row>
     <row r="625">
-      <c r="I625" s="13"/>
+      <c r="I625" s="16"/>
     </row>
     <row r="626">
-      <c r="I626" s="13"/>
+      <c r="I626" s="16"/>
     </row>
     <row r="627">
-      <c r="I627" s="13"/>
+      <c r="I627" s="16"/>
     </row>
     <row r="628">
-      <c r="I628" s="13"/>
+      <c r="I628" s="16"/>
     </row>
     <row r="629">
-      <c r="I629" s="13"/>
+      <c r="I629" s="16"/>
     </row>
     <row r="630">
-      <c r="I630" s="13"/>
+      <c r="I630" s="16"/>
     </row>
     <row r="631">
-      <c r="I631" s="13"/>
+      <c r="I631" s="16"/>
     </row>
     <row r="632">
-      <c r="I632" s="13"/>
+      <c r="I632" s="16"/>
     </row>
     <row r="633">
-      <c r="I633" s="13"/>
+      <c r="I633" s="16"/>
     </row>
     <row r="634">
-      <c r="I634" s="13"/>
+      <c r="I634" s="16"/>
     </row>
     <row r="635">
-      <c r="I635" s="13"/>
+      <c r="I635" s="16"/>
     </row>
     <row r="636">
-      <c r="I636" s="13"/>
+      <c r="I636" s="16"/>
     </row>
     <row r="637">
-      <c r="I637" s="13"/>
+      <c r="I637" s="16"/>
     </row>
     <row r="638">
-      <c r="I638" s="13"/>
+      <c r="I638" s="16"/>
     </row>
     <row r="639">
-      <c r="I639" s="13"/>
+      <c r="I639" s="16"/>
     </row>
     <row r="640">
-      <c r="I640" s="13"/>
+      <c r="I640" s="16"/>
     </row>
     <row r="641">
-      <c r="I641" s="13"/>
+      <c r="I641" s="16"/>
     </row>
     <row r="642">
-      <c r="I642" s="13"/>
+      <c r="I642" s="16"/>
     </row>
     <row r="643">
-      <c r="I643" s="13"/>
+      <c r="I643" s="16"/>
     </row>
     <row r="644">
-      <c r="I644" s="13"/>
+      <c r="I644" s="16"/>
     </row>
     <row r="645">
-      <c r="I645" s="13"/>
+      <c r="I645" s="16"/>
     </row>
     <row r="646">
-      <c r="I646" s="13"/>
+      <c r="I646" s="16"/>
     </row>
     <row r="647">
-      <c r="I647" s="13"/>
+      <c r="I647" s="16"/>
     </row>
     <row r="648">
-      <c r="I648" s="13"/>
+      <c r="I648" s="16"/>
     </row>
     <row r="649">
-      <c r="I649" s="13"/>
+      <c r="I649" s="16"/>
     </row>
     <row r="650">
-      <c r="I650" s="13"/>
+      <c r="I650" s="16"/>
     </row>
     <row r="651">
-      <c r="I651" s="13"/>
+      <c r="I651" s="16"/>
     </row>
     <row r="652">
-      <c r="I652" s="13"/>
+      <c r="I652" s="16"/>
     </row>
     <row r="653">
-      <c r="I653" s="13"/>
+      <c r="I653" s="16"/>
     </row>
     <row r="654">
-      <c r="I654" s="13"/>
+      <c r="I654" s="16"/>
     </row>
     <row r="655">
-      <c r="I655" s="13"/>
+      <c r="I655" s="16"/>
     </row>
     <row r="656">
-      <c r="I656" s="13"/>
+      <c r="I656" s="16"/>
     </row>
     <row r="657">
-      <c r="I657" s="13"/>
+      <c r="I657" s="16"/>
     </row>
     <row r="658">
-      <c r="I658" s="13"/>
+      <c r="I658" s="16"/>
     </row>
     <row r="659">
-      <c r="I659" s="13"/>
+      <c r="I659" s="16"/>
     </row>
     <row r="660">
-      <c r="I660" s="13"/>
+      <c r="I660" s="16"/>
     </row>
     <row r="661">
-      <c r="I661" s="13"/>
+      <c r="I661" s="16"/>
     </row>
     <row r="662">
-      <c r="I662" s="13"/>
+      <c r="I662" s="16"/>
     </row>
     <row r="663">
-      <c r="I663" s="13"/>
+      <c r="I663" s="16"/>
     </row>
     <row r="664">
-      <c r="I664" s="13"/>
+      <c r="I664" s="16"/>
     </row>
     <row r="665">
-      <c r="I665" s="13"/>
+      <c r="I665" s="16"/>
     </row>
     <row r="666">
-      <c r="I666" s="13"/>
+      <c r="I666" s="16"/>
     </row>
     <row r="667">
-      <c r="I667" s="13"/>
+      <c r="I667" s="16"/>
     </row>
     <row r="668">
-      <c r="I668" s="13"/>
+      <c r="I668" s="16"/>
     </row>
     <row r="669">
-      <c r="I669" s="13"/>
+      <c r="I669" s="16"/>
     </row>
     <row r="670">
-      <c r="I670" s="13"/>
+      <c r="I670" s="16"/>
     </row>
     <row r="671">
-      <c r="I671" s="13"/>
+      <c r="I671" s="16"/>
     </row>
     <row r="672">
-      <c r="I672" s="13"/>
+      <c r="I672" s="16"/>
     </row>
     <row r="673">
-      <c r="I673" s="13"/>
+      <c r="I673" s="16"/>
     </row>
     <row r="674">
-      <c r="I674" s="13"/>
+      <c r="I674" s="16"/>
     </row>
     <row r="675">
-      <c r="I675" s="13"/>
+      <c r="I675" s="16"/>
     </row>
     <row r="676">
-      <c r="I676" s="13"/>
+      <c r="I676" s="16"/>
     </row>
     <row r="677">
-      <c r="I677" s="13"/>
+      <c r="I677" s="16"/>
     </row>
     <row r="678">
-      <c r="I678" s="13"/>
+      <c r="I678" s="16"/>
     </row>
     <row r="679">
-      <c r="I679" s="13"/>
+      <c r="I679" s="16"/>
     </row>
     <row r="680">
-      <c r="I680" s="13"/>
+      <c r="I680" s="16"/>
     </row>
     <row r="681">
-      <c r="I681" s="13"/>
+      <c r="I681" s="16"/>
     </row>
     <row r="682">
-      <c r="I682" s="13"/>
+      <c r="I682" s="16"/>
     </row>
     <row r="683">
-      <c r="I683" s="13"/>
+      <c r="I683" s="16"/>
     </row>
     <row r="684">
-      <c r="I684" s="13"/>
+      <c r="I684" s="16"/>
     </row>
     <row r="685">
-      <c r="I685" s="13"/>
+      <c r="I685" s="16"/>
     </row>
     <row r="686">
-      <c r="I686" s="13"/>
+      <c r="I686" s="16"/>
     </row>
     <row r="687">
-      <c r="I687" s="13"/>
+      <c r="I687" s="16"/>
     </row>
     <row r="688">
-      <c r="I688" s="13"/>
+      <c r="I688" s="16"/>
     </row>
     <row r="689">
-      <c r="I689" s="13"/>
+      <c r="I689" s="16"/>
     </row>
     <row r="690">
-      <c r="I690" s="13"/>
+      <c r="I690" s="16"/>
     </row>
     <row r="691">
-      <c r="I691" s="13"/>
+      <c r="I691" s="16"/>
     </row>
     <row r="692">
-      <c r="I692" s="13"/>
+      <c r="I692" s="16"/>
     </row>
     <row r="693">
-      <c r="I693" s="13"/>
+      <c r="I693" s="16"/>
     </row>
     <row r="694">
-      <c r="I694" s="13"/>
+      <c r="I694" s="16"/>
     </row>
     <row r="695">
-      <c r="I695" s="13"/>
+      <c r="I695" s="16"/>
     </row>
     <row r="696">
-      <c r="I696" s="13"/>
+      <c r="I696" s="16"/>
     </row>
     <row r="697">
-      <c r="I697" s="13"/>
+      <c r="I697" s="16"/>
     </row>
     <row r="698">
-      <c r="I698" s="13"/>
+      <c r="I698" s="16"/>
     </row>
     <row r="699">
-      <c r="I699" s="13"/>
+      <c r="I699" s="16"/>
     </row>
     <row r="700">
-      <c r="I700" s="13"/>
+      <c r="I700" s="16"/>
     </row>
     <row r="701">
-      <c r="I701" s="13"/>
+      <c r="I701" s="16"/>
     </row>
     <row r="702">
-      <c r="I702" s="13"/>
+      <c r="I702" s="16"/>
     </row>
     <row r="703">
-      <c r="I703" s="13"/>
+      <c r="I703" s="16"/>
     </row>
     <row r="704">
-      <c r="I704" s="13"/>
+      <c r="I704" s="16"/>
     </row>
     <row r="705">
-      <c r="I705" s="13"/>
+      <c r="I705" s="16"/>
     </row>
     <row r="706">
-      <c r="I706" s="13"/>
+      <c r="I706" s="16"/>
     </row>
     <row r="707">
-      <c r="I707" s="13"/>
+      <c r="I707" s="16"/>
     </row>
     <row r="708">
-      <c r="I708" s="13"/>
+      <c r="I708" s="16"/>
     </row>
     <row r="709">
-      <c r="I709" s="13"/>
+      <c r="I709" s="16"/>
     </row>
     <row r="710">
-      <c r="I710" s="13"/>
+      <c r="I710" s="16"/>
     </row>
     <row r="711">
-      <c r="I711" s="13"/>
+      <c r="I711" s="16"/>
     </row>
     <row r="712">
-      <c r="I712" s="13"/>
+      <c r="I712" s="16"/>
     </row>
     <row r="713">
-      <c r="I713" s="13"/>
+      <c r="I713" s="16"/>
     </row>
     <row r="714">
-      <c r="I714" s="13"/>
+      <c r="I714" s="16"/>
     </row>
     <row r="715">
-      <c r="I715" s="13"/>
+      <c r="I715" s="16"/>
     </row>
     <row r="716">
-      <c r="I716" s="13"/>
+      <c r="I716" s="16"/>
     </row>
     <row r="717">
-      <c r="I717" s="13"/>
+      <c r="I717" s="16"/>
     </row>
     <row r="718">
-      <c r="I718" s="13"/>
+      <c r="I718" s="16"/>
     </row>
     <row r="719">
-      <c r="I719" s="13"/>
+      <c r="I719" s="16"/>
     </row>
     <row r="720">
-      <c r="I720" s="13"/>
+      <c r="I720" s="16"/>
     </row>
     <row r="721">
-      <c r="I721" s="13"/>
+      <c r="I721" s="16"/>
     </row>
     <row r="722">
-      <c r="I722" s="13"/>
+      <c r="I722" s="16"/>
     </row>
     <row r="723">
-      <c r="I723" s="13"/>
+      <c r="I723" s="16"/>
     </row>
     <row r="724">
-      <c r="I724" s="13"/>
+      <c r="I724" s="16"/>
     </row>
     <row r="725">
-      <c r="I725" s="13"/>
+      <c r="I725" s="16"/>
     </row>
     <row r="726">
-      <c r="I726" s="13"/>
+      <c r="I726" s="16"/>
     </row>
     <row r="727">
-      <c r="I727" s="13"/>
+      <c r="I727" s="16"/>
     </row>
     <row r="728">
-      <c r="I728" s="13"/>
+      <c r="I728" s="16"/>
     </row>
     <row r="729">
-      <c r="I729" s="13"/>
+      <c r="I729" s="16"/>
     </row>
     <row r="730">
-      <c r="I730" s="13"/>
+      <c r="I730" s="16"/>
     </row>
     <row r="731">
-      <c r="I731" s="13"/>
+      <c r="I731" s="16"/>
     </row>
     <row r="732">
-      <c r="I732" s="13"/>
+      <c r="I732" s="16"/>
     </row>
     <row r="733">
-      <c r="I733" s="13"/>
+      <c r="I733" s="16"/>
     </row>
     <row r="734">
-      <c r="I734" s="13"/>
+      <c r="I734" s="16"/>
     </row>
     <row r="735">
-      <c r="I735" s="13"/>
+      <c r="I735" s="16"/>
     </row>
     <row r="736">
-      <c r="I736" s="13"/>
+      <c r="I736" s="16"/>
     </row>
     <row r="737">
-      <c r="I737" s="13"/>
+      <c r="I737" s="16"/>
     </row>
     <row r="738">
-      <c r="I738" s="13"/>
+      <c r="I738" s="16"/>
     </row>
     <row r="739">
-      <c r="I739" s="13"/>
+      <c r="I739" s="16"/>
     </row>
     <row r="740">
-      <c r="I740" s="13"/>
+      <c r="I740" s="16"/>
     </row>
     <row r="741">
-      <c r="I741" s="13"/>
+      <c r="I741" s="16"/>
     </row>
     <row r="742">
-      <c r="I742" s="13"/>
+      <c r="I742" s="16"/>
     </row>
     <row r="743">
-      <c r="I743" s="13"/>
+      <c r="I743" s="16"/>
     </row>
     <row r="744">
-      <c r="I744" s="13"/>
+      <c r="I744" s="16"/>
     </row>
     <row r="745">
-      <c r="I745" s="13"/>
+      <c r="I745" s="16"/>
     </row>
     <row r="746">
-      <c r="I746" s="13"/>
+      <c r="I746" s="16"/>
     </row>
     <row r="747">
-      <c r="I747" s="13"/>
+      <c r="I747" s="16"/>
     </row>
     <row r="748">
-      <c r="I748" s="13"/>
+      <c r="I748" s="16"/>
     </row>
     <row r="749">
-      <c r="I749" s="13"/>
+      <c r="I749" s="16"/>
     </row>
     <row r="750">
-      <c r="I750" s="13"/>
+      <c r="I750" s="16"/>
     </row>
     <row r="751">
-      <c r="I751" s="13"/>
+      <c r="I751" s="16"/>
     </row>
     <row r="752">
-      <c r="I752" s="13"/>
+      <c r="I752" s="16"/>
     </row>
     <row r="753">
-      <c r="I753" s="13"/>
+      <c r="I753" s="16"/>
     </row>
     <row r="754">
-      <c r="I754" s="13"/>
+      <c r="I754" s="16"/>
     </row>
     <row r="755">
-      <c r="I755" s="13"/>
+      <c r="I755" s="16"/>
     </row>
     <row r="756">
-      <c r="I756" s="13"/>
+      <c r="I756" s="16"/>
     </row>
     <row r="757">
-      <c r="I757" s="13"/>
+      <c r="I757" s="16"/>
     </row>
     <row r="758">
-      <c r="I758" s="13"/>
+      <c r="I758" s="16"/>
     </row>
     <row r="759">
-      <c r="I759" s="13"/>
+      <c r="I759" s="16"/>
     </row>
     <row r="760">
-      <c r="I760" s="13"/>
+      <c r="I760" s="16"/>
     </row>
     <row r="761">
-      <c r="I761" s="13"/>
+      <c r="I761" s="16"/>
     </row>
     <row r="762">
-      <c r="I762" s="13"/>
+      <c r="I762" s="16"/>
     </row>
     <row r="763">
-      <c r="I763" s="13"/>
+      <c r="I763" s="16"/>
     </row>
     <row r="764">
-      <c r="I764" s="13"/>
+      <c r="I764" s="16"/>
     </row>
     <row r="765">
-      <c r="I765" s="13"/>
+      <c r="I765" s="16"/>
     </row>
     <row r="766">
-      <c r="I766" s="13"/>
+      <c r="I766" s="16"/>
     </row>
     <row r="767">
-      <c r="I767" s="13"/>
+      <c r="I767" s="16"/>
     </row>
     <row r="768">
-      <c r="I768" s="13"/>
+      <c r="I768" s="16"/>
     </row>
     <row r="769">
-      <c r="I769" s="13"/>
+      <c r="I769" s="16"/>
     </row>
     <row r="770">
-      <c r="I770" s="13"/>
+      <c r="I770" s="16"/>
     </row>
     <row r="771">
-      <c r="I771" s="13"/>
+      <c r="I771" s="16"/>
     </row>
     <row r="772">
-      <c r="I772" s="13"/>
+      <c r="I772" s="16"/>
     </row>
     <row r="773">
-      <c r="I773" s="13"/>
+      <c r="I773" s="16"/>
     </row>
     <row r="774">
-      <c r="I774" s="13"/>
+      <c r="I774" s="16"/>
     </row>
     <row r="775">
-      <c r="I775" s="13"/>
+      <c r="I775" s="16"/>
     </row>
     <row r="776">
-      <c r="I776" s="13"/>
+      <c r="I776" s="16"/>
     </row>
     <row r="777">
-      <c r="I777" s="13"/>
+      <c r="I777" s="16"/>
     </row>
     <row r="778">
-      <c r="I778" s="13"/>
+      <c r="I778" s="16"/>
     </row>
     <row r="779">
-      <c r="I779" s="13"/>
+      <c r="I779" s="16"/>
     </row>
     <row r="780">
-      <c r="I780" s="13"/>
+      <c r="I780" s="16"/>
     </row>
     <row r="781">
-      <c r="I781" s="13"/>
+      <c r="I781" s="16"/>
     </row>
     <row r="782">
-      <c r="I782" s="13"/>
+      <c r="I782" s="16"/>
     </row>
     <row r="783">
-      <c r="I783" s="13"/>
+      <c r="I783" s="16"/>
     </row>
     <row r="784">
-      <c r="I784" s="13"/>
+      <c r="I784" s="16"/>
     </row>
     <row r="785">
-      <c r="I785" s="13"/>
+      <c r="I785" s="16"/>
     </row>
     <row r="786">
-      <c r="I786" s="13"/>
+      <c r="I786" s="16"/>
     </row>
     <row r="787">
-      <c r="I787" s="13"/>
+      <c r="I787" s="16"/>
     </row>
     <row r="788">
-      <c r="I788" s="13"/>
+      <c r="I788" s="16"/>
     </row>
     <row r="789">
-      <c r="I789" s="13"/>
+      <c r="I789" s="16"/>
     </row>
     <row r="790">
-      <c r="I790" s="13"/>
+      <c r="I790" s="16"/>
     </row>
     <row r="791">
-      <c r="I791" s="13"/>
+      <c r="I791" s="16"/>
     </row>
     <row r="792">
-      <c r="I792" s="13"/>
+      <c r="I792" s="16"/>
     </row>
     <row r="793">
-      <c r="I793" s="13"/>
+      <c r="I793" s="16"/>
     </row>
     <row r="794">
-      <c r="I794" s="13"/>
+      <c r="I794" s="16"/>
     </row>
     <row r="795">
-      <c r="I795" s="13"/>
+      <c r="I795" s="16"/>
     </row>
     <row r="796">
-      <c r="I796" s="13"/>
+      <c r="I796" s="16"/>
     </row>
     <row r="797">
-      <c r="I797" s="13"/>
+      <c r="I797" s="16"/>
     </row>
     <row r="798">
-      <c r="I798" s="13"/>
+      <c r="I798" s="16"/>
     </row>
     <row r="799">
-      <c r="I799" s="13"/>
+      <c r="I799" s="16"/>
     </row>
     <row r="800">
-      <c r="I800" s="13"/>
+      <c r="I800" s="16"/>
     </row>
     <row r="801">
-      <c r="I801" s="13"/>
+      <c r="I801" s="16"/>
     </row>
     <row r="802">
-      <c r="I802" s="13"/>
+      <c r="I802" s="16"/>
     </row>
     <row r="803">
-      <c r="I803" s="13"/>
+      <c r="I803" s="16"/>
     </row>
     <row r="804">
-      <c r="I804" s="13"/>
+      <c r="I804" s="16"/>
     </row>
     <row r="805">
-      <c r="I805" s="13"/>
+      <c r="I805" s="16"/>
     </row>
     <row r="806">
-      <c r="I806" s="13"/>
+      <c r="I806" s="16"/>
     </row>
     <row r="807">
-      <c r="I807" s="13"/>
+      <c r="I807" s="16"/>
     </row>
     <row r="808">
-      <c r="I808" s="13"/>
+      <c r="I808" s="16"/>
     </row>
     <row r="809">
-      <c r="I809" s="13"/>
+      <c r="I809" s="16"/>
     </row>
     <row r="810">
-      <c r="I810" s="13"/>
+      <c r="I810" s="16"/>
     </row>
     <row r="811">
-      <c r="I811" s="13"/>
+      <c r="I811" s="16"/>
     </row>
     <row r="812">
-      <c r="I812" s="13"/>
+      <c r="I812" s="16"/>
     </row>
     <row r="813">
-      <c r="I813" s="13"/>
+      <c r="I813" s="16"/>
     </row>
     <row r="814">
-      <c r="I814" s="13"/>
+      <c r="I814" s="16"/>
     </row>
     <row r="815">
-      <c r="I815" s="13"/>
+      <c r="I815" s="16"/>
     </row>
     <row r="816">
-      <c r="I816" s="13"/>
+      <c r="I816" s="16"/>
     </row>
     <row r="817">
-      <c r="I817" s="13"/>
+      <c r="I817" s="16"/>
     </row>
     <row r="818">
-      <c r="I818" s="13"/>
+      <c r="I818" s="16"/>
     </row>
     <row r="819">
-      <c r="I819" s="13"/>
+      <c r="I819" s="16"/>
     </row>
     <row r="820">
-      <c r="I820" s="13"/>
+      <c r="I820" s="16"/>
     </row>
     <row r="821">
-      <c r="I821" s="13"/>
+      <c r="I821" s="16"/>
     </row>
     <row r="822">
-      <c r="I822" s="13"/>
+      <c r="I822" s="16"/>
     </row>
     <row r="823">
-      <c r="I823" s="13"/>
+      <c r="I823" s="16"/>
     </row>
     <row r="824">
-      <c r="I824" s="13"/>
+      <c r="I824" s="16"/>
     </row>
     <row r="825">
-      <c r="I825" s="13"/>
+      <c r="I825" s="16"/>
     </row>
     <row r="826">
-      <c r="I826" s="13"/>
+      <c r="I826" s="16"/>
     </row>
     <row r="827">
-      <c r="I827" s="13"/>
+      <c r="I827" s="16"/>
     </row>
     <row r="828">
-      <c r="I828" s="13"/>
+      <c r="I828" s="16"/>
     </row>
     <row r="829">
-      <c r="I829" s="13"/>
+      <c r="I829" s="16"/>
     </row>
     <row r="830">
-      <c r="I830" s="13"/>
+      <c r="I830" s="16"/>
     </row>
     <row r="831">
-      <c r="I831" s="13"/>
+      <c r="I831" s="16"/>
     </row>
     <row r="832">
-      <c r="I832" s="13"/>
+      <c r="I832" s="16"/>
     </row>
     <row r="833">
-      <c r="I833" s="13"/>
+      <c r="I833" s="16"/>
     </row>
     <row r="834">
-      <c r="I834" s="13"/>
+      <c r="I834" s="16"/>
     </row>
     <row r="835">
-      <c r="I835" s="13"/>
+      <c r="I835" s="16"/>
     </row>
     <row r="836">
-      <c r="I836" s="13"/>
+      <c r="I836" s="16"/>
     </row>
     <row r="837">
-      <c r="I837" s="13"/>
+      <c r="I837" s="16"/>
     </row>
     <row r="838">
-      <c r="I838" s="13"/>
+      <c r="I838" s="16"/>
     </row>
     <row r="839">
-      <c r="I839" s="13"/>
+      <c r="I839" s="16"/>
     </row>
     <row r="840">
-      <c r="I840" s="13"/>
+      <c r="I840" s="16"/>
     </row>
     <row r="841">
-      <c r="I841" s="13"/>
+      <c r="I841" s="16"/>
     </row>
     <row r="842">
-      <c r="I842" s="13"/>
+      <c r="I842" s="16"/>
     </row>
     <row r="843">
-      <c r="I843" s="13"/>
+      <c r="I843" s="16"/>
     </row>
     <row r="844">
-      <c r="I844" s="13"/>
+      <c r="I844" s="16"/>
     </row>
     <row r="845">
-      <c r="I845" s="13"/>
+      <c r="I845" s="16"/>
     </row>
     <row r="846">
-      <c r="I846" s="13"/>
+      <c r="I846" s="16"/>
     </row>
     <row r="847">
-      <c r="I847" s="13"/>
+      <c r="I847" s="16"/>
     </row>
     <row r="848">
-      <c r="I848" s="13"/>
+      <c r="I848" s="16"/>
     </row>
     <row r="849">
-      <c r="I849" s="13"/>
+      <c r="I849" s="16"/>
     </row>
     <row r="850">
-      <c r="I850" s="13"/>
+      <c r="I850" s="16"/>
     </row>
     <row r="851">
-      <c r="I851" s="13"/>
+      <c r="I851" s="16"/>
     </row>
     <row r="852">
-      <c r="I852" s="13"/>
+      <c r="I852" s="16"/>
     </row>
     <row r="853">
-      <c r="I853" s="13"/>
+      <c r="I853" s="16"/>
     </row>
     <row r="854">
-      <c r="I854" s="13"/>
+      <c r="I854" s="16"/>
     </row>
     <row r="855">
-      <c r="I855" s="13"/>
+      <c r="I855" s="16"/>
     </row>
     <row r="856">
-      <c r="I856" s="13"/>
+      <c r="I856" s="16"/>
     </row>
     <row r="857">
-      <c r="I857" s="13"/>
+      <c r="I857" s="16"/>
     </row>
     <row r="858">
-      <c r="I858" s="13"/>
+      <c r="I858" s="16"/>
     </row>
     <row r="859">
-      <c r="I859" s="13"/>
+      <c r="I859" s="16"/>
     </row>
     <row r="860">
-      <c r="I860" s="13"/>
+      <c r="I860" s="16"/>
     </row>
     <row r="861">
-      <c r="I861" s="13"/>
+      <c r="I861" s="16"/>
     </row>
     <row r="862">
-      <c r="I862" s="13"/>
+      <c r="I862" s="16"/>
     </row>
     <row r="863">
-      <c r="I863" s="13"/>
+      <c r="I863" s="16"/>
     </row>
     <row r="864">
-      <c r="I864" s="13"/>
+      <c r="I864" s="16"/>
     </row>
     <row r="865">
-      <c r="I865" s="13"/>
+      <c r="I865" s="16"/>
     </row>
     <row r="866">
-      <c r="I866" s="13"/>
+      <c r="I866" s="16"/>
     </row>
     <row r="867">
-      <c r="I867" s="13"/>
+      <c r="I867" s="16"/>
     </row>
     <row r="868">
-      <c r="I868" s="13"/>
+      <c r="I868" s="16"/>
     </row>
     <row r="869">
-      <c r="I869" s="13"/>
+      <c r="I869" s="16"/>
     </row>
     <row r="870">
-      <c r="I870" s="13"/>
+      <c r="I870" s="16"/>
     </row>
     <row r="871">
-      <c r="I871" s="13"/>
+      <c r="I871" s="16"/>
     </row>
     <row r="872">
-      <c r="I872" s="13"/>
+      <c r="I872" s="16"/>
     </row>
     <row r="873">
-      <c r="I873" s="13"/>
+      <c r="I873" s="16"/>
     </row>
     <row r="874">
-      <c r="I874" s="13"/>
+      <c r="I874" s="16"/>
     </row>
     <row r="875">
-      <c r="I875" s="13"/>
+      <c r="I875" s="16"/>
     </row>
     <row r="876">
-      <c r="I876" s="13"/>
+      <c r="I876" s="16"/>
     </row>
     <row r="877">
-      <c r="I877" s="13"/>
+      <c r="I877" s="16"/>
     </row>
     <row r="878">
-      <c r="I878" s="13"/>
+      <c r="I878" s="16"/>
     </row>
     <row r="879">
-      <c r="I879" s="13"/>
+      <c r="I879" s="16"/>
     </row>
     <row r="880">
-      <c r="I880" s="13"/>
+      <c r="I880" s="16"/>
     </row>
     <row r="881">
-      <c r="I881" s="13"/>
+      <c r="I881" s="16"/>
     </row>
     <row r="882">
-      <c r="I882" s="13"/>
+      <c r="I882" s="16"/>
     </row>
     <row r="883">
-      <c r="I883" s="13"/>
+      <c r="I883" s="16"/>
     </row>
     <row r="884">
-      <c r="I884" s="13"/>
+      <c r="I884" s="16"/>
     </row>
     <row r="885">
-      <c r="I885" s="13"/>
+      <c r="I885" s="16"/>
     </row>
     <row r="886">
-      <c r="I886" s="13"/>
+      <c r="I886" s="16"/>
     </row>
     <row r="887">
-      <c r="I887" s="13"/>
+      <c r="I887" s="16"/>
     </row>
     <row r="888">
-      <c r="I888" s="13"/>
+      <c r="I888" s="16"/>
     </row>
     <row r="889">
-      <c r="I889" s="13"/>
+      <c r="I889" s="16"/>
     </row>
     <row r="890">
-      <c r="I890" s="13"/>
+      <c r="I890" s="16"/>
     </row>
     <row r="891">
-      <c r="I891" s="13"/>
+      <c r="I891" s="16"/>
     </row>
     <row r="892">
-      <c r="I892" s="13"/>
+      <c r="I892" s="16"/>
     </row>
     <row r="893">
-      <c r="I893" s="13"/>
+      <c r="I893" s="16"/>
     </row>
     <row r="894">
-      <c r="I894" s="13"/>
+      <c r="I894" s="16"/>
     </row>
     <row r="895">
-      <c r="I895" s="13"/>
+      <c r="I895" s="16"/>
     </row>
     <row r="896">
-      <c r="I896" s="13"/>
+      <c r="I896" s="16"/>
     </row>
     <row r="897">
-      <c r="I897" s="13"/>
+      <c r="I897" s="16"/>
     </row>
     <row r="898">
-      <c r="I898" s="13"/>
+      <c r="I898" s="16"/>
     </row>
     <row r="899">
-      <c r="I899" s="13"/>
+      <c r="I899" s="16"/>
     </row>
     <row r="900">
-      <c r="I900" s="13"/>
+      <c r="I900" s="16"/>
     </row>
     <row r="901">
-      <c r="I901" s="13"/>
+      <c r="I901" s="16"/>
     </row>
     <row r="902">
-      <c r="I902" s="13"/>
+      <c r="I902" s="16"/>
     </row>
     <row r="903">
-      <c r="I903" s="13"/>
+      <c r="I903" s="16"/>
     </row>
     <row r="904">
-      <c r="I904" s="13"/>
+      <c r="I904" s="16"/>
     </row>
     <row r="905">
-      <c r="I905" s="13"/>
+      <c r="I905" s="16"/>
     </row>
     <row r="906">
-      <c r="I906" s="13"/>
+      <c r="I906" s="16"/>
     </row>
     <row r="907">
-      <c r="I907" s="13"/>
+      <c r="I907" s="16"/>
     </row>
     <row r="908">
-      <c r="I908" s="13"/>
+      <c r="I908" s="16"/>
     </row>
     <row r="909">
-      <c r="I909" s="13"/>
+      <c r="I909" s="16"/>
     </row>
     <row r="910">
-      <c r="I910" s="13"/>
+      <c r="I910" s="16"/>
     </row>
     <row r="911">
-      <c r="I911" s="13"/>
+      <c r="I911" s="16"/>
     </row>
     <row r="912">
-      <c r="I912" s="13"/>
+      <c r="I912" s="16"/>
     </row>
     <row r="913">
-      <c r="I913" s="13"/>
+      <c r="I913" s="16"/>
     </row>
     <row r="914">
-      <c r="I914" s="13"/>
+      <c r="I914" s="16"/>
     </row>
     <row r="915">
-      <c r="I915" s="13"/>
+      <c r="I915" s="16"/>
     </row>
     <row r="916">
-      <c r="I916" s="13"/>
+      <c r="I916" s="16"/>
     </row>
     <row r="917">
-      <c r="I917" s="13"/>
+      <c r="I917" s="16"/>
     </row>
     <row r="918">
-      <c r="I918" s="13"/>
+      <c r="I918" s="16"/>
     </row>
     <row r="919">
-      <c r="I919" s="13"/>
+      <c r="I919" s="16"/>
     </row>
     <row r="920">
-      <c r="I920" s="13"/>
+      <c r="I920" s="16"/>
     </row>
     <row r="921">
-      <c r="I921" s="13"/>
+      <c r="I921" s="16"/>
     </row>
     <row r="922">
-      <c r="I922" s="13"/>
+      <c r="I922" s="16"/>
     </row>
     <row r="923">
-      <c r="I923" s="13"/>
+      <c r="I923" s="16"/>
     </row>
     <row r="924">
-      <c r="I924" s="13"/>
+      <c r="I924" s="16"/>
     </row>
     <row r="925">
-      <c r="I925" s="13"/>
+      <c r="I925" s="16"/>
     </row>
     <row r="926">
-      <c r="I926" s="13"/>
+      <c r="I926" s="16"/>
     </row>
     <row r="927">
-      <c r="I927" s="13"/>
+      <c r="I927" s="16"/>
     </row>
     <row r="928">
-      <c r="I928" s="13"/>
+      <c r="I928" s="16"/>
     </row>
     <row r="929">
-      <c r="I929" s="13"/>
+      <c r="I929" s="16"/>
     </row>
     <row r="930">
-      <c r="I930" s="13"/>
+      <c r="I930" s="16"/>
     </row>
     <row r="931">
-      <c r="I931" s="13"/>
+      <c r="I931" s="16"/>
     </row>
     <row r="932">
-      <c r="I932" s="13"/>
+      <c r="I932" s="16"/>
     </row>
     <row r="933">
-      <c r="I933" s="13"/>
+      <c r="I933" s="16"/>
     </row>
     <row r="934">
-      <c r="I934" s="13"/>
+      <c r="I934" s="16"/>
     </row>
     <row r="935">
-      <c r="I935" s="13"/>
+      <c r="I935" s="16"/>
     </row>
     <row r="936">
-      <c r="I936" s="13"/>
+      <c r="I936" s="16"/>
     </row>
     <row r="937">
-      <c r="I937" s="13"/>
+      <c r="I937" s="16"/>
     </row>
     <row r="938">
-      <c r="I938" s="13"/>
+      <c r="I938" s="16"/>
     </row>
     <row r="939">
-      <c r="I939" s="13"/>
+      <c r="I939" s="16"/>
     </row>
     <row r="940">
-      <c r="I940" s="13"/>
+      <c r="I940" s="16"/>
     </row>
     <row r="941">
-      <c r="I941" s="13"/>
+      <c r="I941" s="16"/>
     </row>
     <row r="942">
-      <c r="I942" s="13"/>
+      <c r="I942" s="16"/>
     </row>
     <row r="943">
-      <c r="I943" s="13"/>
+      <c r="I943" s="16"/>
     </row>
     <row r="944">
-      <c r="I944" s="13"/>
+      <c r="I944" s="16"/>
     </row>
     <row r="945">
-      <c r="I945" s="13"/>
+      <c r="I945" s="16"/>
     </row>
     <row r="946">
-      <c r="I946" s="13"/>
+      <c r="I946" s="16"/>
     </row>
     <row r="947">
-      <c r="I947" s="13"/>
+      <c r="I947" s="16"/>
     </row>
     <row r="948">
-      <c r="I948" s="13"/>
+      <c r="I948" s="16"/>
     </row>
     <row r="949">
-      <c r="I949" s="13"/>
+      <c r="I949" s="16"/>
     </row>
     <row r="950">
-      <c r="I950" s="13"/>
+      <c r="I950" s="16"/>
     </row>
     <row r="951">
-      <c r="I951" s="13"/>
+      <c r="I951" s="16"/>
     </row>
     <row r="952">
-      <c r="I952" s="13"/>
+      <c r="I952" s="16"/>
     </row>
     <row r="953">
-      <c r="I953" s="13"/>
+      <c r="I953" s="16"/>
     </row>
     <row r="954">
-      <c r="I954" s="13"/>
+      <c r="I954" s="16"/>
     </row>
     <row r="955">
-      <c r="I955" s="13"/>
+      <c r="I955" s="16"/>
     </row>
     <row r="956">
-      <c r="I956" s="13"/>
+      <c r="I956" s="16"/>
     </row>
     <row r="957">
-      <c r="I957" s="13"/>
+      <c r="I957" s="16"/>
     </row>
     <row r="958">
-      <c r="I958" s="13"/>
+      <c r="I958" s="16"/>
     </row>
     <row r="959">
-      <c r="I959" s="13"/>
+      <c r="I959" s="16"/>
     </row>
     <row r="960">
-      <c r="I960" s="13"/>
+      <c r="I960" s="16"/>
     </row>
     <row r="961">
-      <c r="I961" s="13"/>
+      <c r="I961" s="16"/>
     </row>
     <row r="962">
-      <c r="I962" s="13"/>
+      <c r="I962" s="16"/>
     </row>
     <row r="963">
-      <c r="I963" s="13"/>
+      <c r="I963" s="16"/>
     </row>
     <row r="964">
-      <c r="I964" s="13"/>
+      <c r="I964" s="16"/>
     </row>
     <row r="965">
-      <c r="I965" s="13"/>
+      <c r="I965" s="16"/>
     </row>
     <row r="966">
-      <c r="I966" s="13"/>
+      <c r="I966" s="16"/>
     </row>
     <row r="967">
-      <c r="I967" s="13"/>
+      <c r="I967" s="16"/>
     </row>
     <row r="968">
-      <c r="I968" s="13"/>
+      <c r="I968" s="16"/>
     </row>
     <row r="969">
-      <c r="I969" s="13"/>
+      <c r="I969" s="16"/>
     </row>
     <row r="970">
-      <c r="I970" s="13"/>
+      <c r="I970" s="16"/>
     </row>
     <row r="971">
-      <c r="I971" s="13"/>
+      <c r="I971" s="16"/>
     </row>
     <row r="972">
-      <c r="I972" s="13"/>
+      <c r="I972" s="16"/>
     </row>
     <row r="973">
-      <c r="I973" s="13"/>
+      <c r="I973" s="16"/>
     </row>
     <row r="974">
-      <c r="I974" s="13"/>
+      <c r="I974" s="16"/>
     </row>
     <row r="975">
-      <c r="I975" s="13"/>
+      <c r="I975" s="16"/>
     </row>
     <row r="976">
-      <c r="I976" s="13"/>
+      <c r="I976" s="16"/>
     </row>
     <row r="977">
-      <c r="I977" s="13"/>
+      <c r="I977" s="16"/>
     </row>
     <row r="978">
-      <c r="I978" s="13"/>
+      <c r="I978" s="16"/>
     </row>
     <row r="979">
-      <c r="I979" s="13"/>
+      <c r="I979" s="16"/>
     </row>
     <row r="980">
-      <c r="I980" s="13"/>
+      <c r="I980" s="16"/>
     </row>
     <row r="981">
-      <c r="I981" s="13"/>
+      <c r="I981" s="16"/>
     </row>
     <row r="982">
-      <c r="I982" s="13"/>
+      <c r="I982" s="16"/>
     </row>
     <row r="983">
-      <c r="I983" s="13"/>
+      <c r="I983" s="16"/>
     </row>
     <row r="984">
-      <c r="I984" s="13"/>
+      <c r="I984" s="16"/>
     </row>
     <row r="985">
-      <c r="I985" s="13"/>
+      <c r="I985" s="16"/>
     </row>
     <row r="986">
-      <c r="I986" s="13"/>
+      <c r="I986" s="16"/>
     </row>
     <row r="987">
-      <c r="I987" s="13"/>
+      <c r="I987" s="16"/>
     </row>
     <row r="988">
-      <c r="I988" s="13"/>
+      <c r="I988" s="16"/>
     </row>
     <row r="989">
-      <c r="I989" s="13"/>
+      <c r="I989" s="16"/>
     </row>
     <row r="990">
-      <c r="I990" s="13"/>
+      <c r="I990" s="16"/>
     </row>
     <row r="991">
-      <c r="I991" s="13"/>
+      <c r="I991" s="16"/>
     </row>
     <row r="992">
-      <c r="I992" s="13"/>
+      <c r="I992" s="16"/>
     </row>
     <row r="993">
-      <c r="I993" s="13"/>
+      <c r="I993" s="16"/>
     </row>
     <row r="994">
-      <c r="I994" s="13"/>
+      <c r="I994" s="16"/>
     </row>
     <row r="995">
-      <c r="I995" s="13"/>
+      <c r="I995" s="16"/>
     </row>
     <row r="996">
-      <c r="I996" s="13"/>
+      <c r="I996" s="16"/>
     </row>
     <row r="997">
-      <c r="I997" s="13"/>
+      <c r="I997" s="16"/>
     </row>
     <row r="998">
-      <c r="I998" s="13"/>
+      <c r="I998" s="16"/>
     </row>
     <row r="999">
-      <c r="I999" s="13"/>
+      <c r="I999" s="16"/>
     </row>
     <row r="1000">
-      <c r="I1000" s="13"/>
+      <c r="I1000" s="16"/>
     </row>
     <row r="1001">
-      <c r="I1001" s="13"/>
+      <c r="I1001" s="16"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
